--- a/TestCaseDocument_IzabelaPabich_WojciechPełka.xlsx
+++ b/TestCaseDocument_IzabelaPabich_WojciechPełka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18906"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Temp\OICE_16_974FA576_32C1D314_1026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{512F5A59-AB05-424B-8FFF-E54AA24043D6}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCD4DE72-870D-435C-9C2B-57732DEDAF49}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="19320" windowHeight="7560" tabRatio="672" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="168">
   <si>
     <t>przykładowe logo/obraz</t>
   </si>
@@ -535,7 +535,81 @@
     <t>Widoczna lista powiadomień z danymi</t>
   </si>
   <si>
-    <t>Testy Systemowe</t>
+    <t>Testy Jednostkowe</t>
+  </si>
+  <si>
+    <t>Test metody pobierającej listę wszystkich przedmiotów po danym ID nauczyciela</t>
+  </si>
+  <si>
+    <t>ID Nauczyciela</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>1. Przekaż poprawny TeacherID do funkcji public List&lt;SUBJECT&gt; GetAllSubjects(int? id)</t>
+  </si>
+  <si>
+    <t>Lista przedmiotó przypisanych do danego nauczyciela</t>
+  </si>
+  <si>
+    <t>Pobrana lista tylko przedmiotów przypisanych do nauczyciela o danym ID</t>
+  </si>
+  <si>
+    <t>07.12.2017</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>1. Przekaż niepoprawny TeacherID do funkcji public List&lt;SUBJECT&gt; GetAllSubjects(int? id)</t>
+  </si>
+  <si>
+    <t>Zwrócony i obsłużony wyjątek, który mówi o tym, że nie znaleziono użytkownika o podanym ID</t>
+  </si>
+  <si>
+    <t>Wyjątek został przechwycony poprawny, na UI wyświetla się komunikat o błędnym ID nauczyciela</t>
+  </si>
+  <si>
+    <t>Test metody przypisania do nauczyciela nowego przedmiotu</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>1. Utwórz obiekt klasy SUBJECT
+2. Wywołaj metodę public void AssignSubjectToTeacher(int teacherID, SUBJECT subject) z poprawnym parametrem teacherID oraz z utworzonym obiektem</t>
+  </si>
+  <si>
+    <t>System znajdzie nauczyciela po ID i przypisze do niego przekazany przedmiot</t>
+  </si>
+  <si>
+    <t>Do podanego nauczyciela został przypisany przedmiot</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>1. Utwórz obiekt klasy SUBJECT
+2. Wywołaj metodę public void AssignSubjectToTeacher(int teacherID, SUBJECT subject) z niepoprawnym parametrem teacherID oraz z utworzonym obiektem</t>
+  </si>
+  <si>
+    <t>System nie znajdzie nauczyciela po ID i nie przypisze do niego przekazanego przedmiotu. Dodatkowo metoda wywoła i obsłuży wyjątek o braku nauczyciela o podanym ID</t>
+  </si>
+  <si>
+    <t>Metoda wyrzuciła wyjątek, który został przechwycony. Przedmiot nie został do nikogo przypisany</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>1. Wywołaj metodę public void AssignSubjectToTeacher(int teacherID, SUBJECT subject) z poprawnym parametrem teacherID oraz z wartością null dla parametru subject</t>
+  </si>
+  <si>
+    <t>Metoda wykryje, że przekazywany jest obiekt o wartości null i zwróci stosowny komunikat</t>
+  </si>
+  <si>
+    <t>Metoda zwróciła komunikat o tym, że przekazany obiekt przedmiotu jest null</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1575,11 +1649,38 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1593,7 +1694,96 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1617,49 +1807,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1667,98 +1838,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1783,6 +1868,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1792,15 +1913,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1813,49 +1928,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2505,18 +2582,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="132"/>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+      <c r="A1" s="123"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
@@ -2652,16 +2729,16 @@
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="20.25">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="25"/>
       <c r="K10" s="26"/>
       <c r="L10" s="24"/>
@@ -2687,17 +2764,17 @@
     </row>
     <row r="12" spans="1:17" ht="27" customHeight="1">
       <c r="B12" s="27"/>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="127"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -2707,15 +2784,15 @@
       <c r="B13" s="28">
         <v>1</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="24"/>
       <c r="K13" s="29"/>
       <c r="L13" s="24"/>
@@ -2725,15 +2802,15 @@
     </row>
     <row r="14" spans="1:17" s="30" customFormat="1" ht="28.5" customHeight="1">
       <c r="B14" s="31"/>
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
       <c r="J14" s="32"/>
       <c r="K14" s="33"/>
     </row>
@@ -2741,29 +2818,29 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="24"/>
       <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1">
       <c r="B16" s="28"/>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="24"/>
       <c r="K16" s="29"/>
     </row>
@@ -2771,29 +2848,29 @@
       <c r="B17" s="28">
         <v>3</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
       <c r="J17" s="24"/>
       <c r="K17" s="29"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="28"/>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
       <c r="J18" s="24"/>
       <c r="K18" s="29"/>
     </row>
@@ -2801,29 +2878,29 @@
       <c r="B19" s="28">
         <v>4</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
       <c r="J19" s="24"/>
       <c r="K19" s="29"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="28"/>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
       <c r="J20" s="24"/>
       <c r="K20" s="29"/>
     </row>
@@ -2866,121 +2943,121 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="24"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="24"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="199"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="24"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="24"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="2:11" ht="12.75" customHeight="1">
       <c r="B30" s="24"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
     <row r="31" spans="2:11" ht="12.75" customHeight="1">
       <c r="B31" s="24"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="199"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="199"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="24"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="199"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="199"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="199"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="24"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="199"/>
-      <c r="E33" s="199"/>
-      <c r="F33" s="199"/>
-      <c r="G33" s="199"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="199"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="2:11" ht="30" customHeight="1">
       <c r="B34" s="24"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="199"/>
-      <c r="G34" s="199"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="199"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="24"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
@@ -3298,7 +3375,7 @@
       <c r="L61" s="20"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="108"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
       <c r="E62" s="48"/>
@@ -3312,7 +3389,7 @@
     </row>
     <row r="63" spans="2:12">
       <c r="B63" s="48"/>
-      <c r="C63" s="108"/>
+      <c r="C63" s="110"/>
       <c r="D63" s="48"/>
       <c r="E63" s="48"/>
       <c r="F63" s="48"/>
@@ -3325,7 +3402,7 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64" s="48"/>
-      <c r="C64" s="108"/>
+      <c r="C64" s="110"/>
       <c r="D64" s="48"/>
       <c r="E64" s="48"/>
       <c r="F64" s="48"/>
@@ -3338,7 +3415,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="B65" s="48"/>
-      <c r="C65" s="108"/>
+      <c r="C65" s="110"/>
       <c r="D65" s="48"/>
       <c r="E65" s="48"/>
       <c r="F65" s="48"/>
@@ -3351,7 +3428,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="B66" s="48"/>
-      <c r="C66" s="108"/>
+      <c r="C66" s="110"/>
       <c r="D66" s="48"/>
       <c r="E66" s="48"/>
       <c r="F66" s="48"/>
@@ -3364,7 +3441,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="B67" s="48"/>
-      <c r="C67" s="108"/>
+      <c r="C67" s="110"/>
       <c r="D67" s="48"/>
       <c r="E67" s="48"/>
       <c r="F67" s="48"/>
@@ -3377,7 +3454,7 @@
     </row>
     <row r="68" spans="1:12" ht="12.75" customHeight="1">
       <c r="B68" s="48"/>
-      <c r="C68" s="108"/>
+      <c r="C68" s="110"/>
       <c r="D68" s="48"/>
       <c r="E68" s="48"/>
       <c r="F68" s="48"/>
@@ -3389,7 +3466,7 @@
       <c r="L68" s="20"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="B69" s="108"/>
+      <c r="B69" s="110"/>
       <c r="C69" s="48"/>
       <c r="D69" s="48"/>
       <c r="E69" s="48"/>
@@ -3402,7 +3479,7 @@
       <c r="L69" s="20"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="B70" s="108"/>
+      <c r="B70" s="110"/>
       <c r="C70" s="48"/>
       <c r="D70" s="48"/>
       <c r="E70" s="48"/>
@@ -3527,15 +3604,15 @@
     </row>
     <row r="80" spans="1:12" ht="29.25" customHeight="1">
       <c r="B80" s="24"/>
-      <c r="C80" s="121"/>
-      <c r="D80" s="121"/>
-      <c r="E80" s="121"/>
-      <c r="F80" s="121"/>
-      <c r="G80" s="121"/>
-      <c r="H80" s="121"/>
-      <c r="I80" s="121"/>
-      <c r="J80" s="121"/>
-      <c r="K80" s="121"/>
+      <c r="C80" s="124"/>
+      <c r="D80" s="124"/>
+      <c r="E80" s="124"/>
+      <c r="F80" s="124"/>
+      <c r="G80" s="124"/>
+      <c r="H80" s="124"/>
+      <c r="I80" s="124"/>
+      <c r="J80" s="124"/>
+      <c r="K80" s="124"/>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="24"/>
@@ -3755,14 +3832,14 @@
     </row>
     <row r="99" spans="2:11" ht="29.25" customHeight="1">
       <c r="B99" s="24"/>
-      <c r="C99" s="121"/>
-      <c r="D99" s="121"/>
-      <c r="E99" s="121"/>
-      <c r="F99" s="121"/>
-      <c r="G99" s="121"/>
-      <c r="H99" s="121"/>
-      <c r="I99" s="121"/>
-      <c r="J99" s="121"/>
+      <c r="C99" s="124"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="124"/>
+      <c r="F99" s="124"/>
+      <c r="G99" s="124"/>
+      <c r="H99" s="124"/>
+      <c r="I99" s="124"/>
+      <c r="J99" s="124"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11">
@@ -3779,25 +3856,25 @@
     </row>
     <row r="101" spans="2:11" ht="51" customHeight="1">
       <c r="B101" s="24"/>
-      <c r="C101" s="124"/>
-      <c r="D101" s="124"/>
-      <c r="E101" s="124"/>
-      <c r="F101" s="124"/>
-      <c r="G101" s="124"/>
-      <c r="H101" s="124"/>
-      <c r="I101" s="124"/>
+      <c r="C101" s="137"/>
+      <c r="D101" s="137"/>
+      <c r="E101" s="137"/>
+      <c r="F101" s="137"/>
+      <c r="G101" s="137"/>
+      <c r="H101" s="137"/>
+      <c r="I101" s="137"/>
       <c r="J101" s="24"/>
       <c r="K101" s="24"/>
     </row>
     <row r="102" spans="2:11" ht="27" customHeight="1">
       <c r="B102" s="24"/>
-      <c r="C102" s="121"/>
-      <c r="D102" s="121"/>
-      <c r="E102" s="121"/>
-      <c r="F102" s="121"/>
-      <c r="G102" s="121"/>
-      <c r="H102" s="121"/>
-      <c r="I102" s="121"/>
+      <c r="C102" s="124"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="124"/>
+      <c r="F102" s="124"/>
+      <c r="G102" s="124"/>
+      <c r="H102" s="124"/>
+      <c r="I102" s="124"/>
       <c r="J102" s="24"/>
       <c r="K102" s="24"/>
     </row>
@@ -3875,15 +3952,15 @@
     </row>
     <row r="109" spans="2:11" ht="28.5" customHeight="1">
       <c r="B109" s="24"/>
-      <c r="C109" s="122"/>
-      <c r="D109" s="122"/>
-      <c r="E109" s="122"/>
-      <c r="F109" s="122"/>
-      <c r="G109" s="122"/>
-      <c r="H109" s="122"/>
-      <c r="I109" s="122"/>
-      <c r="J109" s="122"/>
-      <c r="K109" s="122"/>
+      <c r="C109" s="136"/>
+      <c r="D109" s="136"/>
+      <c r="E109" s="136"/>
+      <c r="F109" s="136"/>
+      <c r="G109" s="136"/>
+      <c r="H109" s="136"/>
+      <c r="I109" s="136"/>
+      <c r="J109" s="136"/>
+      <c r="K109" s="136"/>
     </row>
     <row r="110" spans="2:11">
       <c r="B110" s="24"/>
@@ -4091,27 +4168,27 @@
     </row>
     <row r="127" spans="2:11" ht="26.25" customHeight="1">
       <c r="B127" s="24"/>
-      <c r="C127" s="121"/>
-      <c r="D127" s="121"/>
-      <c r="E127" s="121"/>
-      <c r="F127" s="121"/>
-      <c r="G127" s="121"/>
-      <c r="H127" s="121"/>
-      <c r="I127" s="121"/>
-      <c r="J127" s="121"/>
-      <c r="K127" s="121"/>
+      <c r="C127" s="124"/>
+      <c r="D127" s="124"/>
+      <c r="E127" s="124"/>
+      <c r="F127" s="124"/>
+      <c r="G127" s="124"/>
+      <c r="H127" s="124"/>
+      <c r="I127" s="124"/>
+      <c r="J127" s="124"/>
+      <c r="K127" s="124"/>
     </row>
     <row r="128" spans="2:11" ht="26.25" customHeight="1">
       <c r="B128" s="24"/>
-      <c r="C128" s="125"/>
-      <c r="D128" s="121"/>
-      <c r="E128" s="121"/>
-      <c r="F128" s="121"/>
-      <c r="G128" s="121"/>
-      <c r="H128" s="121"/>
-      <c r="I128" s="121"/>
-      <c r="J128" s="121"/>
-      <c r="K128" s="121"/>
+      <c r="C128" s="130"/>
+      <c r="D128" s="124"/>
+      <c r="E128" s="124"/>
+      <c r="F128" s="124"/>
+      <c r="G128" s="124"/>
+      <c r="H128" s="124"/>
+      <c r="I128" s="124"/>
+      <c r="J128" s="124"/>
+      <c r="K128" s="124"/>
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="24"/>
@@ -4404,15 +4481,8 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="28">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C101:I101"/>
+    <mergeCell ref="C102:I102"/>
     <mergeCell ref="C128:K128"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="C17:I17"/>
@@ -4429,9 +4499,16 @@
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C26:I26"/>
     <mergeCell ref="C80:K80"/>
-    <mergeCell ref="C101:I101"/>
-    <mergeCell ref="C102:I102"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
@@ -4464,20 +4541,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
       <c r="M1" s="44"/>
       <c r="P1" s="40"/>
     </row>
@@ -4506,20 +4583,20 @@
       <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="42.75" customHeight="1">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
       <c r="M5" s="42"/>
       <c r="P5" s="40"/>
     </row>
@@ -4632,18 +4709,18 @@
       <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
       <c r="M13" s="48"/>
       <c r="N13" s="43"/>
       <c r="P13" s="40"/>
@@ -4667,40 +4744,40 @@
       <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="157"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
     </row>
     <row r="18" spans="1:15" ht="26.25">
-      <c r="A18" s="200" t="s">
+      <c r="A18" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="200"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="200"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="200"/>
-      <c r="O18" s="200"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="50"/>
@@ -4714,43 +4791,43 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="50"/>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="152"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="158" t="e">
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="146" t="e">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="160"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="148"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="140" t="s">
+      <c r="C21" s="142"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
@@ -4807,155 +4884,155 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" ht="24" customHeight="1">
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="110" t="s">
+      <c r="C25" s="143"/>
+      <c r="D25" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="114" t="s">
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="134" t="s">
+      <c r="H25" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="147"/>
-      <c r="D26" s="148" t="s">
+      <c r="C26" s="156"/>
+      <c r="D26" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="136"/>
-      <c r="F26" s="137"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="155"/>
       <c r="G26" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="140" t="s">
+      <c r="H26" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="149"/>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="B27" s="144" t="s">
+      <c r="B27" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148" t="s">
+      <c r="C27" s="156"/>
+      <c r="D27" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="136"/>
-      <c r="F27" s="137"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="155"/>
       <c r="G27" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="140" t="s">
+      <c r="H27" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="140"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="B28" s="144"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="137"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="155"/>
       <c r="G28" s="59"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
+      <c r="N28" s="149"/>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="B29" s="144"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="137"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="155"/>
       <c r="G29" s="59"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="B30" s="144"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="137"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="155"/>
       <c r="G30" s="59"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140"/>
-      <c r="N30" s="140"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="B31" s="144"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="137"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="155"/>
       <c r="G31" s="59"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140"/>
-      <c r="L31" s="140"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="140"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="149"/>
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="B32" s="144"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="150"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="159"/>
       <c r="G32" s="59"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="143"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="162"/>
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15">
@@ -5012,121 +5089,121 @@
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" ht="24" customHeight="1">
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="136"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="151" t="s">
+      <c r="C36" s="154"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="152"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="134" t="s">
+      <c r="F36" s="142"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="134"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="134"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
-      <c r="N36" s="134"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="150"/>
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="B37" s="148"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="138"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="138"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="164"/>
+      <c r="M37" s="164"/>
+      <c r="N37" s="164"/>
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="B38" s="135"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="139"/>
-      <c r="N38" s="139"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="165"/>
+      <c r="N38" s="165"/>
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15">
       <c r="B39" s="117"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="138"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="138"/>
-      <c r="N39" s="138"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="164"/>
+      <c r="K39" s="164"/>
+      <c r="L39" s="164"/>
+      <c r="M39" s="164"/>
+      <c r="N39" s="164"/>
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15">
       <c r="B40" s="117"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138"/>
-      <c r="N40" s="138"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="164"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="164"/>
+      <c r="K40" s="164"/>
+      <c r="L40" s="164"/>
+      <c r="M40" s="164"/>
+      <c r="N40" s="164"/>
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15">
       <c r="B41" s="117"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="138"/>
-      <c r="M41" s="138"/>
-      <c r="N41" s="138"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="164"/>
+      <c r="L41" s="164"/>
+      <c r="M41" s="164"/>
+      <c r="N41" s="164"/>
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:15">
       <c r="B42" s="117"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="138"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="164"/>
+      <c r="K42" s="164"/>
+      <c r="L42" s="164"/>
+      <c r="M42" s="164"/>
+      <c r="N42" s="164"/>
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:15">
@@ -5315,15 +5392,26 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="45">
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A17:O17"/>
-    <mergeCell ref="A18:O18"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
     <mergeCell ref="H25:N25"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
@@ -5336,30 +5424,19 @@
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="H27:N27"/>
-    <mergeCell ref="H28:N28"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -5396,18 +5473,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
+      <c r="A1" s="168"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="1:8" ht="27.75">
       <c r="A2" s="3"/>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="108" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3"/>
@@ -5450,79 +5527,79 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4"/>
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="166"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="171"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="169"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="174"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="174"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="174"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="169"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="169"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="174"/>
     </row>
     <row r="12" spans="1:8" ht="31.5" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="169"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="174"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="174"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="179"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4"/>
@@ -5571,10 +5648,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4"/>
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="162"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -5831,11 +5908,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:O61"/>
+  <dimension ref="B1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="7" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5857,17 +5934,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15">
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="2:15" ht="27.75">
       <c r="B2" s="3"/>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="108" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="69"/>
@@ -5947,16 +6024,16 @@
       <c r="O7" s="89"/>
     </row>
     <row r="8" spans="2:15" s="73" customFormat="1" ht="51">
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="180">
+      <c r="C8" s="184">
         <v>1</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="182" t="s">
+      <c r="E8" s="197" t="s">
         <v>70</v>
       </c>
       <c r="F8" s="74" t="s">
@@ -5979,10 +6056,10 @@
       <c r="O8" s="90"/>
     </row>
     <row r="9" spans="2:15" s="73" customFormat="1" ht="51">
-      <c r="B9" s="176"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="183"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="198"/>
       <c r="F9" s="74" t="s">
         <v>75</v>
       </c>
@@ -6003,10 +6080,10 @@
       <c r="O9" s="90"/>
     </row>
     <row r="10" spans="2:15" s="73" customFormat="1" ht="51">
-      <c r="B10" s="176"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="183"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="198"/>
       <c r="F10" s="74" t="s">
         <v>78</v>
       </c>
@@ -6027,10 +6104,10 @@
       <c r="O10" s="90"/>
     </row>
     <row r="11" spans="2:15" s="73" customFormat="1" ht="63.75">
-      <c r="B11" s="176"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="184"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="199"/>
       <c r="F11" s="74" t="s">
         <v>80</v>
       </c>
@@ -6051,11 +6128,11 @@
       <c r="O11" s="90"/>
     </row>
     <row r="12" spans="2:15" s="73" customFormat="1" ht="89.25">
-      <c r="B12" s="176"/>
-      <c r="C12" s="180">
+      <c r="B12" s="193"/>
+      <c r="C12" s="184">
         <v>2</v>
       </c>
-      <c r="D12" s="178" t="s">
+      <c r="D12" s="183" t="s">
         <v>82</v>
       </c>
       <c r="E12" s="74" t="s">
@@ -6081,9 +6158,9 @@
       <c r="O12" s="90"/>
     </row>
     <row r="13" spans="2:15" s="73" customFormat="1" ht="102">
-      <c r="B13" s="176"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="185"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="181"/>
       <c r="E13" s="74" t="s">
         <v>87</v>
       </c>
@@ -6107,9 +6184,9 @@
       <c r="O13" s="90"/>
     </row>
     <row r="14" spans="2:15" s="73" customFormat="1" ht="114.75">
-      <c r="B14" s="177"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="179"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="195"/>
       <c r="E14" s="74" t="s">
         <v>87</v>
       </c>
@@ -6134,10 +6211,10 @@
     </row>
     <row r="15" spans="2:15" s="73" customFormat="1" ht="102">
       <c r="B15" s="84"/>
-      <c r="C15" s="180">
+      <c r="C15" s="184">
         <v>3</v>
       </c>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="183" t="s">
         <v>93</v>
       </c>
       <c r="E15" s="74" t="s">
@@ -6164,8 +6241,8 @@
     </row>
     <row r="16" spans="2:15" s="73" customFormat="1" ht="102">
       <c r="B16" s="84"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="179"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="195"/>
       <c r="E16" s="74" t="s">
         <v>98</v>
       </c>
@@ -6217,22 +6294,22 @@
       <c r="O17" s="90"/>
     </row>
     <row r="18" spans="2:15" s="73" customFormat="1" ht="145.5" customHeight="1">
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="188" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="180">
+      <c r="C18" s="184">
         <v>5</v>
       </c>
-      <c r="D18" s="178" t="s">
+      <c r="D18" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="197" t="s">
+      <c r="E18" s="122" t="s">
         <v>108</v>
       </c>
       <c r="F18" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="189" t="s">
+      <c r="G18" s="121" t="s">
         <v>110</v>
       </c>
       <c r="H18" s="82" t="s">
@@ -6257,16 +6334,16 @@
       <c r="O18" s="91"/>
     </row>
     <row r="19" spans="2:15" s="73" customFormat="1" ht="195.75" customHeight="1">
-      <c r="B19" s="191"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="195" t="s">
+      <c r="B19" s="189"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="180" t="s">
         <v>116</v>
       </c>
       <c r="F19" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="189" t="s">
+      <c r="G19" s="121" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="82" t="s">
@@ -6291,14 +6368,14 @@
       <c r="O19" s="91"/>
     </row>
     <row r="20" spans="2:15" s="73" customFormat="1" ht="171" customHeight="1">
-      <c r="B20" s="191"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="185"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
       <c r="F20" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="189" t="s">
+      <c r="G20" s="121" t="s">
         <v>121</v>
       </c>
       <c r="H20" s="82" t="s">
@@ -6323,14 +6400,14 @@
       <c r="O20" s="91"/>
     </row>
     <row r="21" spans="2:15" s="73" customFormat="1" ht="205.5" customHeight="1">
-      <c r="B21" s="191"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="196"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
       <c r="F21" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="189" t="s">
+      <c r="G21" s="121" t="s">
         <v>124</v>
       </c>
       <c r="H21" s="82" t="s">
@@ -6355,11 +6432,11 @@
       <c r="O21" s="91"/>
     </row>
     <row r="22" spans="2:15" s="73" customFormat="1" ht="114.75">
-      <c r="B22" s="191"/>
-      <c r="C22" s="193">
+      <c r="B22" s="189"/>
+      <c r="C22" s="191">
         <v>6</v>
       </c>
-      <c r="D22" s="195" t="s">
+      <c r="D22" s="180" t="s">
         <v>126</v>
       </c>
       <c r="E22" s="75" t="s">
@@ -6393,9 +6470,9 @@
       <c r="O22" s="91"/>
     </row>
     <row r="23" spans="2:15" s="73" customFormat="1" ht="153">
-      <c r="B23" s="191"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="185"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="181"/>
       <c r="E23" s="75" t="s">
         <v>116</v>
       </c>
@@ -6427,9 +6504,9 @@
       <c r="O23" s="91"/>
     </row>
     <row r="24" spans="2:15" s="73" customFormat="1" ht="127.5">
-      <c r="B24" s="191"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="185"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="181"/>
       <c r="E24" s="75" t="s">
         <v>135</v>
       </c>
@@ -6461,9 +6538,9 @@
       <c r="O24" s="91"/>
     </row>
     <row r="25" spans="2:15" s="73" customFormat="1" ht="102">
-      <c r="B25" s="192"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="196"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="182"/>
       <c r="E25" s="75" t="s">
         <v>139</v>
       </c>
@@ -6495,87 +6572,178 @@
       <c r="O25" s="91"/>
     </row>
     <row r="26" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B26" s="188" t="s">
+      <c r="B26" s="187" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="191">
         <v>7</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="88"/>
+      <c r="D26" s="180" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="180" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="88" t="s">
+        <v>115</v>
+      </c>
       <c r="N26" s="75"/>
       <c r="O26" s="91"/>
     </row>
-    <row r="27" spans="2:15" s="73" customFormat="1">
-      <c r="B27" s="187"/>
-      <c r="C27" s="85">
-        <v>8</v>
-      </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="88"/>
+    <row r="27" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B27" s="200"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="M27" s="88" t="s">
+        <v>115</v>
+      </c>
       <c r="N27" s="75"/>
       <c r="O27" s="91"/>
     </row>
-    <row r="28" spans="2:15">
-      <c r="C28" s="62"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="C29" s="62"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="C30" s="62"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
+    <row r="28" spans="2:15" s="73" customFormat="1" ht="87" customHeight="1">
+      <c r="B28" s="200"/>
+      <c r="C28" s="191">
+        <v>8</v>
+      </c>
+      <c r="D28" s="180" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="180" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="J28" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="M28" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="N28" s="75"/>
+      <c r="O28" s="91"/>
+    </row>
+    <row r="29" spans="2:15" s="73" customFormat="1" ht="102" customHeight="1">
+      <c r="B29" s="200"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="M29" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="N29" s="75"/>
+      <c r="O29" s="91"/>
+    </row>
+    <row r="30" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1">
+      <c r="B30" s="201"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="M30" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="N30" s="75"/>
+      <c r="O30" s="91"/>
     </row>
     <row r="31" spans="2:15">
       <c r="C31" s="62"/>
@@ -7042,15 +7210,53 @@
       <c r="N61" s="76"/>
       <c r="O61" s="76"/>
     </row>
+    <row r="62" spans="3:15">
+      <c r="C62" s="62"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="76"/>
+      <c r="O62" s="76"/>
+    </row>
+    <row r="63" spans="3:15">
+      <c r="C63" s="62"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="76"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="76"/>
+      <c r="O63" s="76"/>
+    </row>
+    <row r="64" spans="3:15">
+      <c r="C64" s="62"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="76"/>
+      <c r="O64" s="76"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
+  <mergeCells count="22">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="D15:D16"/>
@@ -7060,10 +7266,23 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J27" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J30" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"-,Pass,Pass With Issue,Fail,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCaseDocument_IzabelaPabich_WojciechPełka.xlsx
+++ b/TestCaseDocument_IzabelaPabich_WojciechPełka.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18906"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Temp\OICE_16_974FA576_32C1D314_1026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Izka\STUDIA\II stopień\sem1\MASI\lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCD4DE72-870D-435C-9C2B-57732DEDAF49}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19320" windowHeight="7560" tabRatio="672" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19320" windowHeight="7560" tabRatio="672" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Guidelines" sheetId="12" state="hidden" r:id="rId1"/>
@@ -23,12 +22,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Właściwości!$A$1:$P$55</definedName>
     <definedName name="Status">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171026" calcCompleted="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
   <si>
     <t>przykładowe logo/obraz</t>
   </si>
@@ -108,25 +107,10 @@
     <t>Opis</t>
   </si>
   <si>
-    <t>30-11-2017</t>
-  </si>
-  <si>
     <t>Izabela Pabich</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>Wypisanie przypadków testowych dla testów bezpieczeństwa</t>
-  </si>
-  <si>
     <t>02-12-2017</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>Wypisanie przypadków testowych dla testów jednostkowych</t>
   </si>
   <si>
     <t>Historia zatwierdzania</t>
@@ -409,9 +393,6 @@
   </si>
   <si>
     <t>Wojciech Pełka</t>
-  </si>
-  <si>
-    <t>04.12.2017</t>
   </si>
   <si>
     <t>W tym konkretnym przypadku komunikacją z bązą danych i Web API przebiegła prawidłowo</t>
@@ -611,18 +592,40 @@
   <si>
     <t>Metoda zwróciła komunikat o tym, że przekazany obiekt przedmiotu jest null</t>
   </si>
+  <si>
+    <t>Testy funkcjonalne (czarna skrzynka)</t>
+  </si>
+  <si>
+    <t>Użytkownik zalogowany</t>
+  </si>
+  <si>
+    <t>Użytkownik bez dostępu do systemu</t>
+  </si>
+  <si>
+    <t>Użytkownik systemu zalogowany jako administrator.</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>1. Zaloguj się
+2. Panel powiadomień jest pusty.</t>
+  </si>
+  <si>
+    <t>System nie wyświetli żadnego przycisku 'Szczegóły', ponieważ administrator nie ma powiadomień.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="mmm/dd/yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -825,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1326,11 +1329,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1700,46 +1747,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1752,18 +1878,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1780,70 +1894,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1868,70 +1918,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2039,7 +2110,7 @@
         <xdr:cNvPr id="12444" name="Picture 102" descr="TEWI">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3FFB505-648F-40EB-BA70-DAF7B1B26DAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3FFB505-648F-40EB-BA70-DAF7B1B26DAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2113,7 +2184,7 @@
         <xdr:cNvPr id="14486" name="Picture 5" descr="PTC_LogoCMYKBlue_noTag">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7C0048-7535-423D-B7C4-B78DADBF71E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD7C0048-7535-423D-B7C4-B78DADBF71E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2269,7 @@
         <xdr:cNvPr id="14487" name="AutoShape 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA7C665-6D4E-4781-9F82-4A5E7BB98A16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AA7C665-6D4E-4781-9F82-4A5E7BB98A16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,9 +2313,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2282,7 +2353,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2317,23 +2388,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2369,26 +2423,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2561,16 +2598,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView showGridLines="0" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L34" sqref="L34"/>
       <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
-      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="21" customWidth="1"/>
     <col min="2" max="2" width="5" style="21" customWidth="1"/>
@@ -2581,26 +2618,26 @@
     <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="123"/>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="136"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
     </row>
-    <row r="2" spans="1:17" ht="26.25">
+    <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="22"/>
@@ -2619,7 +2656,7 @@
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2638,7 +2675,7 @@
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2659,7 +2696,7 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2678,7 +2715,7 @@
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -2697,7 +2734,7 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2716,29 +2753,29 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="13.5" thickBot="1">
+    <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
     </row>
-    <row r="10" spans="1:17" ht="20.25">
-      <c r="B10" s="127" t="s">
+    <row r="10" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
       <c r="J10" s="25"/>
       <c r="K10" s="26"/>
       <c r="L10" s="24"/>
@@ -2746,7 +2783,7 @@
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:17" ht="12" customHeight="1">
+    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="93"/>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
@@ -2762,37 +2799,37 @@
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
     </row>
-    <row r="12" spans="1:17" ht="27" customHeight="1">
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="132"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="128"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="28">
         <v>1</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
       <c r="J13" s="24"/>
       <c r="K13" s="29"/>
       <c r="L13" s="24"/>
@@ -2800,121 +2837,121 @@
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:17" s="30" customFormat="1" ht="28.5" customHeight="1">
+    <row r="14" spans="1:17" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="31"/>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="32"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
       <c r="J15" s="24"/>
       <c r="K15" s="29"/>
     </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
       <c r="J16" s="24"/>
       <c r="K16" s="29"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="28">
         <v>3</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
       <c r="J17" s="24"/>
       <c r="K17" s="29"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="28"/>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
       <c r="J18" s="24"/>
       <c r="K18" s="29"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="28">
         <v>4</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
       <c r="J19" s="24"/>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="28"/>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
       <c r="J20" s="24"/>
       <c r="K20" s="29"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="28"/>
       <c r="J21" s="24"/>
       <c r="K21" s="29"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="28"/>
       <c r="J22" s="24"/>
       <c r="K22" s="29"/>
     </row>
-    <row r="23" spans="2:11" ht="13.5" thickBot="1">
+    <row r="23" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="34"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -2926,10 +2963,10 @@
       <c r="J23" s="35"/>
       <c r="K23" s="36"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="37"/>
     </row>
-    <row r="25" spans="2:11" ht="20.25">
+    <row r="25" spans="2:11" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B25" s="100"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
@@ -2941,127 +2978,127 @@
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="24"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="24"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="24"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
-    <row r="30" spans="2:11" ht="12.75" customHeight="1">
+    <row r="30" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
-    <row r="31" spans="2:11" ht="12.75" customHeight="1">
+    <row r="31" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="24"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="24"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="2:11" ht="30" customHeight="1">
+    <row r="34" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="130"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="24"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="109"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
@@ -3073,7 +3110,7 @@
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -3085,7 +3122,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -3097,7 +3134,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -3109,7 +3146,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -3121,7 +3158,7 @@
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -3133,7 +3170,7 @@
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -3145,7 +3182,7 @@
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
@@ -3157,7 +3194,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -3169,7 +3206,7 @@
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
@@ -3181,7 +3218,7 @@
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -3193,7 +3230,7 @@
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
@@ -3205,7 +3242,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -3217,7 +3254,7 @@
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -3229,7 +3266,7 @@
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
@@ -3241,7 +3278,7 @@
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -3253,7 +3290,7 @@
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -3265,7 +3302,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -3277,7 +3314,7 @@
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
@@ -3289,7 +3326,7 @@
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
@@ -3301,7 +3338,7 @@
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -3313,7 +3350,7 @@
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -3325,7 +3362,7 @@
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
@@ -3337,7 +3374,7 @@
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -3349,7 +3386,7 @@
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="109"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
@@ -3361,7 +3398,7 @@
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="2:12" ht="20.25">
+    <row r="61" spans="2:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B61" s="103"/>
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
@@ -3374,7 +3411,7 @@
       <c r="K61" s="48"/>
       <c r="L61" s="20"/>
     </row>
-    <row r="62" spans="2:12">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="110"/>
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
@@ -3387,7 +3424,7 @@
       <c r="K62" s="48"/>
       <c r="L62" s="20"/>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="48"/>
       <c r="C63" s="110"/>
       <c r="D63" s="48"/>
@@ -3400,7 +3437,7 @@
       <c r="K63" s="48"/>
       <c r="L63" s="20"/>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="48"/>
       <c r="C64" s="110"/>
       <c r="D64" s="48"/>
@@ -3413,7 +3450,7 @@
       <c r="K64" s="48"/>
       <c r="L64" s="20"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B65" s="48"/>
       <c r="C65" s="110"/>
       <c r="D65" s="48"/>
@@ -3426,7 +3463,7 @@
       <c r="K65" s="48"/>
       <c r="L65" s="20"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B66" s="48"/>
       <c r="C66" s="110"/>
       <c r="D66" s="48"/>
@@ -3439,7 +3476,7 @@
       <c r="K66" s="48"/>
       <c r="L66" s="20"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B67" s="48"/>
       <c r="C67" s="110"/>
       <c r="D67" s="48"/>
@@ -3452,7 +3489,7 @@
       <c r="K67" s="48"/>
       <c r="L67" s="20"/>
     </row>
-    <row r="68" spans="1:12" ht="12.75" customHeight="1">
+    <row r="68" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="48"/>
       <c r="C68" s="110"/>
       <c r="D68" s="48"/>
@@ -3465,7 +3502,7 @@
       <c r="K68" s="48"/>
       <c r="L68" s="20"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B69" s="110"/>
       <c r="C69" s="48"/>
       <c r="D69" s="48"/>
@@ -3478,7 +3515,7 @@
       <c r="K69" s="48"/>
       <c r="L69" s="20"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B70" s="110"/>
       <c r="C70" s="48"/>
       <c r="D70" s="48"/>
@@ -3491,7 +3528,7 @@
       <c r="K70" s="48"/>
       <c r="L70" s="20"/>
     </row>
-    <row r="71" spans="1:12" ht="20.25">
+    <row r="71" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B71" s="103"/>
       <c r="C71" s="48"/>
       <c r="D71" s="48"/>
@@ -3504,7 +3541,7 @@
       <c r="K71" s="48"/>
       <c r="L71" s="20"/>
     </row>
-    <row r="72" spans="1:12" ht="12" customHeight="1">
+    <row r="72" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="101"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
@@ -3516,7 +3553,7 @@
       <c r="J72" s="24"/>
       <c r="K72" s="24"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B73" s="24"/>
       <c r="C73" s="109"/>
       <c r="D73" s="24"/>
@@ -3528,7 +3565,7 @@
       <c r="J73" s="24"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B74" s="24"/>
       <c r="C74" s="109"/>
       <c r="D74" s="24"/>
@@ -3540,7 +3577,7 @@
       <c r="J74" s="24"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
       <c r="C75" s="109"/>
@@ -3553,7 +3590,7 @@
       <c r="J75" s="24"/>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="24"/>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
@@ -3566,7 +3603,7 @@
       <c r="J76" s="24"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:12" ht="20.25">
+    <row r="77" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B77" s="103"/>
       <c r="C77" s="48"/>
       <c r="D77" s="48"/>
@@ -3578,7 +3615,7 @@
       <c r="J77" s="48"/>
       <c r="K77" s="48"/>
     </row>
-    <row r="78" spans="1:12" ht="12" customHeight="1">
+    <row r="78" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="101"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
@@ -3590,7 +3627,7 @@
       <c r="J78" s="24"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B79" s="24"/>
       <c r="C79" s="109"/>
       <c r="D79" s="24"/>
@@ -3602,19 +3639,19 @@
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:12" ht="29.25" customHeight="1">
+    <row r="80" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="24"/>
-      <c r="C80" s="124"/>
-      <c r="D80" s="124"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="124"/>
-      <c r="G80" s="124"/>
-      <c r="H80" s="124"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="124"/>
-      <c r="K80" s="124"/>
-    </row>
-    <row r="81" spans="2:11">
+      <c r="C80" s="125"/>
+      <c r="D80" s="125"/>
+      <c r="E80" s="125"/>
+      <c r="F80" s="125"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="125"/>
+      <c r="I80" s="125"/>
+      <c r="J80" s="125"/>
+      <c r="K80" s="125"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="24"/>
       <c r="C81" s="109"/>
       <c r="D81" s="24"/>
@@ -3626,7 +3663,7 @@
       <c r="J81" s="24"/>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="24"/>
       <c r="C82" s="109"/>
       <c r="D82" s="24"/>
@@ -3638,7 +3675,7 @@
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="24"/>
       <c r="C83" s="109"/>
       <c r="D83" s="24"/>
@@ -3650,7 +3687,7 @@
       <c r="J83" s="24"/>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="94"/>
       <c r="C84" s="94"/>
       <c r="D84" s="94"/>
@@ -3662,7 +3699,7 @@
       <c r="J84" s="24"/>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="94"/>
       <c r="C85" s="96"/>
       <c r="D85" s="96"/>
@@ -3674,7 +3711,7 @@
       <c r="J85" s="24"/>
       <c r="K85" s="32"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="94"/>
       <c r="C86" s="97"/>
       <c r="D86" s="98"/>
@@ -3686,7 +3723,7 @@
       <c r="J86" s="32"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="94"/>
       <c r="C87" s="97"/>
       <c r="D87" s="98"/>
@@ -3698,7 +3735,7 @@
       <c r="J87" s="24"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="94"/>
       <c r="C88" s="97"/>
       <c r="D88" s="98"/>
@@ -3710,7 +3747,7 @@
       <c r="J88" s="24"/>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="94"/>
       <c r="C89" s="97"/>
       <c r="D89" s="98"/>
@@ -3722,7 +3759,7 @@
       <c r="J89" s="24"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="94"/>
       <c r="C90" s="97"/>
       <c r="D90" s="98"/>
@@ -3734,7 +3771,7 @@
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="94"/>
       <c r="C91" s="97"/>
       <c r="D91" s="98"/>
@@ -3746,7 +3783,7 @@
       <c r="J91" s="24"/>
       <c r="K91" s="24"/>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="94"/>
       <c r="C92" s="97"/>
       <c r="D92" s="98"/>
@@ -3758,7 +3795,7 @@
       <c r="J92" s="24"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="94"/>
       <c r="C93" s="97"/>
       <c r="D93" s="98"/>
@@ -3770,7 +3807,7 @@
       <c r="J93" s="24"/>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="94"/>
       <c r="C94" s="97"/>
       <c r="D94" s="98"/>
@@ -3782,7 +3819,7 @@
       <c r="J94" s="24"/>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="94"/>
       <c r="C95" s="97"/>
       <c r="D95" s="98"/>
@@ -3794,7 +3831,7 @@
       <c r="J95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="94"/>
       <c r="C96" s="94"/>
       <c r="D96" s="94"/>
@@ -3806,7 +3843,7 @@
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="109"/>
       <c r="C97" s="109"/>
       <c r="D97" s="24"/>
@@ -3818,7 +3855,7 @@
       <c r="J97" s="24"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="24"/>
       <c r="C98" s="109"/>
       <c r="D98" s="24"/>
@@ -3830,19 +3867,19 @@
       <c r="J98" s="24"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="29.25" customHeight="1">
+    <row r="99" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="24"/>
-      <c r="C99" s="124"/>
-      <c r="D99" s="124"/>
-      <c r="E99" s="124"/>
-      <c r="F99" s="124"/>
-      <c r="G99" s="124"/>
-      <c r="H99" s="124"/>
-      <c r="I99" s="124"/>
-      <c r="J99" s="124"/>
+      <c r="C99" s="125"/>
+      <c r="D99" s="125"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="125"/>
+      <c r="G99" s="125"/>
+      <c r="H99" s="125"/>
+      <c r="I99" s="125"/>
+      <c r="J99" s="125"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="24"/>
       <c r="C100" s="109"/>
       <c r="D100" s="24"/>
@@ -3854,31 +3891,31 @@
       <c r="J100" s="24"/>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="51" customHeight="1">
+    <row r="101" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="24"/>
-      <c r="C101" s="137"/>
-      <c r="D101" s="137"/>
-      <c r="E101" s="137"/>
-      <c r="F101" s="137"/>
-      <c r="G101" s="137"/>
-      <c r="H101" s="137"/>
-      <c r="I101" s="137"/>
+      <c r="C101" s="124"/>
+      <c r="D101" s="124"/>
+      <c r="E101" s="124"/>
+      <c r="F101" s="124"/>
+      <c r="G101" s="124"/>
+      <c r="H101" s="124"/>
+      <c r="I101" s="124"/>
       <c r="J101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="27" customHeight="1">
+    <row r="102" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="24"/>
-      <c r="C102" s="124"/>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
-      <c r="F102" s="124"/>
-      <c r="G102" s="124"/>
-      <c r="H102" s="124"/>
-      <c r="I102" s="124"/>
+      <c r="C102" s="125"/>
+      <c r="D102" s="125"/>
+      <c r="E102" s="125"/>
+      <c r="F102" s="125"/>
+      <c r="G102" s="125"/>
+      <c r="H102" s="125"/>
+      <c r="I102" s="125"/>
       <c r="J102" s="24"/>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="24"/>
       <c r="C103" s="102"/>
       <c r="D103" s="24"/>
@@ -3890,7 +3927,7 @@
       <c r="J103" s="24"/>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="24"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24"/>
@@ -3902,7 +3939,7 @@
       <c r="J104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="24"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
@@ -3914,7 +3951,7 @@
       <c r="J105" s="24"/>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="20.25">
+    <row r="106" spans="2:11" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B106" s="103"/>
       <c r="C106" s="48"/>
       <c r="D106" s="48"/>
@@ -3926,7 +3963,7 @@
       <c r="J106" s="48"/>
       <c r="K106" s="48"/>
     </row>
-    <row r="107" spans="2:11" ht="12" customHeight="1">
+    <row r="107" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="101"/>
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
@@ -3938,7 +3975,7 @@
       <c r="J107" s="24"/>
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="24"/>
       <c r="C108" s="109"/>
       <c r="D108" s="24"/>
@@ -3950,19 +3987,19 @@
       <c r="J108" s="24"/>
       <c r="K108" s="24"/>
     </row>
-    <row r="109" spans="2:11" ht="28.5" customHeight="1">
+    <row r="109" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="24"/>
-      <c r="C109" s="136"/>
-      <c r="D109" s="136"/>
-      <c r="E109" s="136"/>
-      <c r="F109" s="136"/>
-      <c r="G109" s="136"/>
-      <c r="H109" s="136"/>
-      <c r="I109" s="136"/>
-      <c r="J109" s="136"/>
-      <c r="K109" s="136"/>
-    </row>
-    <row r="110" spans="2:11">
+      <c r="C109" s="135"/>
+      <c r="D109" s="135"/>
+      <c r="E109" s="135"/>
+      <c r="F109" s="135"/>
+      <c r="G109" s="135"/>
+      <c r="H109" s="135"/>
+      <c r="I109" s="135"/>
+      <c r="J109" s="135"/>
+      <c r="K109" s="135"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="24"/>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
@@ -3974,7 +4011,7 @@
       <c r="J110" s="24"/>
       <c r="K110" s="24"/>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
@@ -3986,7 +4023,7 @@
       <c r="J111" s="24"/>
       <c r="K111" s="24"/>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="24"/>
       <c r="C112" s="109"/>
       <c r="D112" s="24"/>
@@ -3998,7 +4035,7 @@
       <c r="J112" s="24"/>
       <c r="K112" s="24"/>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="24"/>
       <c r="C113" s="109"/>
       <c r="D113" s="24"/>
@@ -4010,7 +4047,7 @@
       <c r="J113" s="24"/>
       <c r="K113" s="24"/>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="24"/>
       <c r="C114" s="109"/>
       <c r="D114" s="24"/>
@@ -4022,7 +4059,7 @@
       <c r="J114" s="24"/>
       <c r="K114" s="24"/>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="24"/>
       <c r="C115" s="109"/>
       <c r="D115" s="24"/>
@@ -4034,7 +4071,7 @@
       <c r="J115" s="24"/>
       <c r="K115" s="24"/>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="24"/>
       <c r="C116" s="109"/>
       <c r="D116" s="24"/>
@@ -4046,7 +4083,7 @@
       <c r="J116" s="24"/>
       <c r="K116" s="24"/>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="24"/>
       <c r="C117" s="109"/>
       <c r="D117" s="24"/>
@@ -4058,7 +4095,7 @@
       <c r="J117" s="24"/>
       <c r="K117" s="24"/>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="24"/>
       <c r="C118" s="109"/>
       <c r="D118" s="24"/>
@@ -4070,7 +4107,7 @@
       <c r="J118" s="24"/>
       <c r="K118" s="24"/>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="24"/>
       <c r="C119" s="109"/>
       <c r="D119" s="24"/>
@@ -4082,7 +4119,7 @@
       <c r="J119" s="24"/>
       <c r="K119" s="24"/>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="24"/>
       <c r="C120" s="109"/>
       <c r="D120" s="24"/>
@@ -4094,7 +4131,7 @@
       <c r="J120" s="24"/>
       <c r="K120" s="24"/>
     </row>
-    <row r="121" spans="2:11">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="24"/>
       <c r="C121" s="109"/>
       <c r="D121" s="24"/>
@@ -4106,7 +4143,7 @@
       <c r="J121" s="24"/>
       <c r="K121" s="24"/>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="24"/>
       <c r="C122" s="109"/>
       <c r="D122" s="24"/>
@@ -4118,7 +4155,7 @@
       <c r="J122" s="24"/>
       <c r="K122" s="24"/>
     </row>
-    <row r="123" spans="2:11">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="24"/>
       <c r="C123" s="109"/>
       <c r="D123" s="24"/>
@@ -4130,7 +4167,7 @@
       <c r="J123" s="24"/>
       <c r="K123" s="24"/>
     </row>
-    <row r="124" spans="2:11">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="24"/>
       <c r="C124" s="109"/>
       <c r="D124" s="24"/>
@@ -4142,7 +4179,7 @@
       <c r="J124" s="24"/>
       <c r="K124" s="24"/>
     </row>
-    <row r="125" spans="2:11">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="24"/>
       <c r="C125" s="109"/>
       <c r="D125" s="24"/>
@@ -4154,7 +4191,7 @@
       <c r="J125" s="24"/>
       <c r="K125" s="24"/>
     </row>
-    <row r="126" spans="2:11">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="24"/>
       <c r="C126" s="109"/>
       <c r="D126" s="24"/>
@@ -4166,31 +4203,31 @@
       <c r="J126" s="24"/>
       <c r="K126" s="24"/>
     </row>
-    <row r="127" spans="2:11" ht="26.25" customHeight="1">
+    <row r="127" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="24"/>
-      <c r="C127" s="124"/>
-      <c r="D127" s="124"/>
-      <c r="E127" s="124"/>
-      <c r="F127" s="124"/>
-      <c r="G127" s="124"/>
-      <c r="H127" s="124"/>
-      <c r="I127" s="124"/>
-      <c r="J127" s="124"/>
-      <c r="K127" s="124"/>
-    </row>
-    <row r="128" spans="2:11" ht="26.25" customHeight="1">
+      <c r="C127" s="125"/>
+      <c r="D127" s="125"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="125"/>
+      <c r="G127" s="125"/>
+      <c r="H127" s="125"/>
+      <c r="I127" s="125"/>
+      <c r="J127" s="125"/>
+      <c r="K127" s="125"/>
+    </row>
+    <row r="128" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="24"/>
-      <c r="C128" s="130"/>
-      <c r="D128" s="124"/>
-      <c r="E128" s="124"/>
-      <c r="F128" s="124"/>
-      <c r="G128" s="124"/>
-      <c r="H128" s="124"/>
-      <c r="I128" s="124"/>
-      <c r="J128" s="124"/>
-      <c r="K128" s="124"/>
-    </row>
-    <row r="129" spans="2:11">
+      <c r="C128" s="126"/>
+      <c r="D128" s="125"/>
+      <c r="E128" s="125"/>
+      <c r="F128" s="125"/>
+      <c r="G128" s="125"/>
+      <c r="H128" s="125"/>
+      <c r="I128" s="125"/>
+      <c r="J128" s="125"/>
+      <c r="K128" s="125"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
@@ -4202,7 +4239,7 @@
       <c r="J129" s="24"/>
       <c r="K129" s="24"/>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
@@ -4214,7 +4251,7 @@
       <c r="J130" s="24"/>
       <c r="K130" s="24"/>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
@@ -4226,7 +4263,7 @@
       <c r="J131" s="24"/>
       <c r="K131" s="24"/>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
@@ -4238,7 +4275,7 @@
       <c r="J132" s="24"/>
       <c r="K132" s="24"/>
     </row>
-    <row r="133" spans="2:11">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
@@ -4250,7 +4287,7 @@
       <c r="J133" s="24"/>
       <c r="K133" s="24"/>
     </row>
-    <row r="134" spans="2:11">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
       <c r="D134" s="24"/>
@@ -4262,7 +4299,7 @@
       <c r="J134" s="24"/>
       <c r="K134" s="24"/>
     </row>
-    <row r="135" spans="2:11">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
@@ -4274,7 +4311,7 @@
       <c r="J135" s="24"/>
       <c r="K135" s="24"/>
     </row>
-    <row r="136" spans="2:11">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
@@ -4286,7 +4323,7 @@
       <c r="J136" s="24"/>
       <c r="K136" s="24"/>
     </row>
-    <row r="137" spans="2:11">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
       <c r="D137" s="24"/>
@@ -4298,7 +4335,7 @@
       <c r="J137" s="24"/>
       <c r="K137" s="24"/>
     </row>
-    <row r="138" spans="2:11">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24"/>
@@ -4310,7 +4347,7 @@
       <c r="J138" s="24"/>
       <c r="K138" s="24"/>
     </row>
-    <row r="139" spans="2:11">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
@@ -4322,7 +4359,7 @@
       <c r="J139" s="24"/>
       <c r="K139" s="24"/>
     </row>
-    <row r="140" spans="2:11">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
@@ -4334,7 +4371,7 @@
       <c r="J140" s="24"/>
       <c r="K140" s="24"/>
     </row>
-    <row r="141" spans="2:11">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
@@ -4346,7 +4383,7 @@
       <c r="J141" s="24"/>
       <c r="K141" s="24"/>
     </row>
-    <row r="142" spans="2:11">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
@@ -4358,7 +4395,7 @@
       <c r="J142" s="24"/>
       <c r="K142" s="24"/>
     </row>
-    <row r="143" spans="2:11">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
       <c r="D143" s="24"/>
@@ -4370,7 +4407,7 @@
       <c r="J143" s="24"/>
       <c r="K143" s="24"/>
     </row>
-    <row r="144" spans="2:11">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B144" s="24"/>
       <c r="C144" s="24"/>
       <c r="D144" s="24"/>
@@ -4382,7 +4419,7 @@
       <c r="J144" s="24"/>
       <c r="K144" s="24"/>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B145" s="24"/>
       <c r="C145" s="24"/>
       <c r="D145" s="24"/>
@@ -4394,7 +4431,7 @@
       <c r="J145" s="24"/>
       <c r="K145" s="24"/>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B146" s="24"/>
       <c r="C146" s="24"/>
       <c r="D146" s="24"/>
@@ -4406,7 +4443,7 @@
       <c r="J146" s="24"/>
       <c r="K146" s="24"/>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B147" s="24"/>
       <c r="C147" s="24"/>
       <c r="D147" s="24"/>
@@ -4418,7 +4455,7 @@
       <c r="J147" s="24"/>
       <c r="K147" s="24"/>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" s="24"/>
       <c r="C148" s="109"/>
       <c r="D148" s="24"/>
@@ -4430,7 +4467,7 @@
       <c r="J148" s="24"/>
       <c r="K148" s="24"/>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B149" s="24"/>
       <c r="C149" s="109"/>
       <c r="D149" s="24"/>
@@ -4442,7 +4479,7 @@
       <c r="J149" s="24"/>
       <c r="K149" s="24"/>
     </row>
-    <row r="150" spans="2:11">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" s="24"/>
       <c r="C150" s="109"/>
       <c r="D150" s="24"/>
@@ -4454,7 +4491,7 @@
       <c r="J150" s="24"/>
       <c r="K150" s="24"/>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B151" s="24"/>
       <c r="C151" s="109"/>
       <c r="D151" s="24"/>
@@ -4466,7 +4503,7 @@
       <c r="J151" s="24"/>
       <c r="K151" s="24"/>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B152" s="24"/>
       <c r="C152" s="24"/>
       <c r="D152" s="24"/>
@@ -4481,6 +4518,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="28">
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C80:K80"/>
     <mergeCell ref="C101:I101"/>
     <mergeCell ref="C102:I102"/>
     <mergeCell ref="C128:K128"/>
@@ -4497,18 +4546,6 @@
     <mergeCell ref="C127:K127"/>
     <mergeCell ref="C109:K109"/>
     <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C80:K80"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
@@ -4519,14 +4556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="39" customWidth="1"/>
     <col min="2" max="9" width="9.140625" style="39"/>
@@ -4540,33 +4577,33 @@
     <col min="17" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33" customHeight="1">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
       <c r="M1" s="44"/>
       <c r="P1" s="40"/>
     </row>
-    <row r="2" spans="1:16" ht="25.5" customHeight="1">
+    <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M2" s="42"/>
       <c r="P2" s="40"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M3" s="42"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" customHeight="1">
+    <row r="4" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -4582,29 +4619,29 @@
       <c r="M4" s="42"/>
       <c r="P4" s="40"/>
     </row>
-    <row r="5" spans="1:16" ht="42.75" customHeight="1">
-      <c r="A5" s="140" t="s">
+    <row r="5" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
       <c r="M5" s="42"/>
       <c r="P5" s="40"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="M6" s="42"/>
       <c r="P6" s="40"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="46"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -4620,7 +4657,7 @@
       <c r="M7" s="42"/>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -4636,7 +4673,7 @@
       <c r="M8" s="42"/>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -4652,7 +4689,7 @@
       <c r="M9" s="42"/>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:16" ht="12.75" customHeight="1">
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -4668,7 +4705,7 @@
       <c r="M10" s="42"/>
       <c r="P10" s="40"/>
     </row>
-    <row r="11" spans="1:16" ht="12.75" customHeight="1">
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="106" t="s">
         <v>13</v>
       </c>
@@ -4690,7 +4727,7 @@
       <c r="M11" s="42"/>
       <c r="P11" s="40"/>
     </row>
-    <row r="12" spans="1:16" ht="12.75" customHeight="1">
+    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="106" t="s">
         <v>16</v>
       </c>
@@ -4708,78 +4745,78 @@
       <c r="M12" s="47"/>
       <c r="P12" s="40"/>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="138"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="159"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
       <c r="M13" s="48"/>
       <c r="N13" s="43"/>
       <c r="P13" s="40"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L14" s="43"/>
       <c r="M14" s="43"/>
       <c r="N14" s="49"/>
       <c r="P14" s="40"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L15" s="43"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
       <c r="P15" s="40"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L16" s="43"/>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
       <c r="P16" s="40"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-    </row>
-    <row r="18" spans="1:15" ht="26.25">
-      <c r="A18" s="145" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="162"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+    </row>
+    <row r="18" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="B18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -4789,49 +4826,49 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="146" t="e">
+      <c r="C20" s="157"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="164" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="148"/>
+        <v>TestCaseDocument_IzabelaPabich_WojciechPełka.xlsx</v>
+      </c>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="166"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="B21" s="141" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="149" t="s">
+      <c r="C21" s="157"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="149"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -4848,7 +4885,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -4865,7 +4902,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" ht="20.25">
+    <row r="24" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
         <v>21</v>
       </c>
@@ -4883,11 +4920,11 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" ht="24" customHeight="1">
-      <c r="B25" s="141" t="s">
+    <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="143"/>
+      <c r="C25" s="158"/>
       <c r="D25" s="118" t="s">
         <v>23</v>
       </c>
@@ -4896,146 +4933,130 @@
       <c r="G25" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="150" t="s">
+      <c r="H25" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="B26" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="156"/>
-      <c r="D26" s="153" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="154"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="149" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="149"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="149"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15">
-      <c r="B27" s="151" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="156"/>
-      <c r="D27" s="153" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="149" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-      <c r="N27" s="149"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="149"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15">
-      <c r="B28" s="151"/>
-      <c r="C28" s="152"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="149"/>
+      <c r="C28" s="151"/>
       <c r="D28" s="153"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="155"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="59"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-      <c r="N28" s="149"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="B29" s="151"/>
-      <c r="C29" s="152"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="149"/>
+      <c r="C29" s="151"/>
       <c r="D29" s="153"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="155"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="59"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="149"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
-      <c r="B30" s="151"/>
-      <c r="C30" s="152"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="149"/>
+      <c r="C30" s="151"/>
       <c r="D30" s="153"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="155"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="142"/>
       <c r="G30" s="59"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-      <c r="N30" s="149"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15">
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="149"/>
+      <c r="C31" s="151"/>
       <c r="D31" s="153"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="155"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="142"/>
       <c r="G31" s="59"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-      <c r="N31" s="149"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15">
-      <c r="B32" s="151"/>
-      <c r="C32" s="156"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="149"/>
+      <c r="C32" s="152"/>
       <c r="D32" s="153"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="159"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="155"/>
       <c r="G32" s="59"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="162"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="148"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -5052,7 +5073,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -5069,9 +5090,9 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15" ht="20.25">
+    <row r="35" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A35" s="55" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="43"/>
@@ -5088,125 +5109,125 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15" ht="24" customHeight="1">
-      <c r="B36" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="154"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="142"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="150" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
-      <c r="N36" s="150"/>
+    <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="156" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="141"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="157"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="139" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="139"/>
+      <c r="N36" s="139"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B37" s="153"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="164"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="143"/>
+      <c r="N37" s="143"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15">
-      <c r="B38" s="163"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="165"/>
-      <c r="L38" s="165"/>
-      <c r="M38" s="165"/>
-      <c r="N38" s="165"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="140"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="144"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="144"/>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B39" s="117"/>
       <c r="C39" s="112"/>
       <c r="D39" s="113"/>
       <c r="E39" s="114"/>
       <c r="F39" s="116"/>
       <c r="G39" s="115"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="164"/>
-      <c r="K39" s="164"/>
-      <c r="L39" s="164"/>
-      <c r="M39" s="164"/>
-      <c r="N39" s="164"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="143"/>
+      <c r="M39" s="143"/>
+      <c r="N39" s="143"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B40" s="117"/>
       <c r="C40" s="112"/>
       <c r="D40" s="113"/>
       <c r="E40" s="114"/>
       <c r="F40" s="116"/>
       <c r="G40" s="115"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="164"/>
-      <c r="K40" s="164"/>
-      <c r="L40" s="164"/>
-      <c r="M40" s="164"/>
-      <c r="N40" s="164"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="143"/>
+      <c r="L40" s="143"/>
+      <c r="M40" s="143"/>
+      <c r="N40" s="143"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="117"/>
       <c r="C41" s="112"/>
       <c r="D41" s="113"/>
       <c r="E41" s="114"/>
       <c r="F41" s="116"/>
       <c r="G41" s="115"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
-      <c r="K41" s="164"/>
-      <c r="L41" s="164"/>
-      <c r="M41" s="164"/>
-      <c r="N41" s="164"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="143"/>
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42" s="117"/>
       <c r="C42" s="112"/>
       <c r="D42" s="113"/>
       <c r="E42" s="114"/>
       <c r="F42" s="116"/>
       <c r="G42" s="115"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="164"/>
-      <c r="K42" s="164"/>
-      <c r="L42" s="164"/>
-      <c r="M42" s="164"/>
-      <c r="N42" s="164"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="143"/>
+      <c r="L42" s="143"/>
+      <c r="M42" s="143"/>
+      <c r="N42" s="143"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I43" s="43"/>
       <c r="J43" s="43"/>
       <c r="K43" s="52"/>
@@ -5215,28 +5236,28 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K44" s="52"/>
       <c r="L44" s="52"/>
       <c r="M44" s="52"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K45" s="52"/>
       <c r="L45" s="52"/>
       <c r="M45" s="52"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K46" s="52"/>
       <c r="L46" s="52"/>
       <c r="M46" s="52"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="52"/>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
@@ -5253,7 +5274,7 @@
       <c r="N47" s="58"/>
       <c r="O47" s="58"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="52"/>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
@@ -5270,7 +5291,7 @@
       <c r="N48" s="52"/>
       <c r="O48" s="52"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="52"/>
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
@@ -5287,7 +5308,7 @@
       <c r="N49" s="52"/>
       <c r="O49" s="52"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="52"/>
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
@@ -5304,7 +5325,7 @@
       <c r="N50" s="52"/>
       <c r="O50" s="52"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="52"/>
       <c r="B51" s="52"/>
       <c r="C51" s="52"/>
@@ -5321,7 +5342,7 @@
       <c r="N51" s="52"/>
       <c r="O51" s="52"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="52"/>
       <c r="B52" s="52"/>
       <c r="C52" s="52"/>
@@ -5338,7 +5359,7 @@
       <c r="N52" s="52"/>
       <c r="O52" s="52"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="52"/>
       <c r="B53" s="52"/>
       <c r="C53" s="52"/>
@@ -5355,7 +5376,7 @@
       <c r="N53" s="52"/>
       <c r="O53" s="52"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="52"/>
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
@@ -5372,7 +5393,7 @@
       <c r="N54" s="52"/>
       <c r="O54" s="52"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="52"/>
       <c r="B55" s="52"/>
       <c r="C55" s="52"/>
@@ -5392,26 +5413,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="45">
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="H28:N28"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
     <mergeCell ref="H25:N25"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
@@ -5428,19 +5438,30 @@
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="H27:N27"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A17:O17"/>
-    <mergeCell ref="A18:O18"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="E38:G38"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21">
       <formula1>"Draft, In-Process, Accepted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5458,31 +5479,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="168"/>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-    </row>
-    <row r="2" spans="1:8" ht="27.75">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="169"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+    </row>
+    <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="108" t="s">
         <v>7</v>
@@ -5494,10 +5515,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="38" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5506,7 +5527,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="13.5" thickBot="1">
+    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5516,7 +5537,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1">
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5525,83 +5546,83 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="169" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="171"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6" s="170" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="172"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="174"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="B7" s="173"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="175"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="175" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="174"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="B8" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="175"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="174"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B9" s="177"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="175"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10" s="177"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="174"/>
-    </row>
-    <row r="12" spans="1:8" ht="31.5" customHeight="1">
+      <c r="B11" s="177"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="175"/>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="176"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="174"/>
-    </row>
-    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B12" s="177"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="175"/>
+    </row>
+    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="179"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="B13" s="178"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="180"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5610,7 +5631,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5619,7 +5640,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5628,7 +5649,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -5637,7 +5658,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="13.5" thickBot="1">
+    <row r="18" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -5646,18 +5667,18 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="166" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="167"/>
+      <c r="B19" s="167" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="168"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="10"/>
       <c r="C20" s="8"/>
@@ -5666,10 +5687,10 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="4"/>
@@ -5677,7 +5698,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
@@ -5686,10 +5707,10 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="4"/>
@@ -5697,10 +5718,10 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="4"/>
@@ -5708,10 +5729,10 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="4"/>
@@ -5719,10 +5740,10 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="4"/>
@@ -5730,10 +5751,10 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="4"/>
@@ -5741,10 +5762,10 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="25.5" customHeight="1">
+    <row r="28" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="4"/>
@@ -5752,10 +5773,10 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="25.5" customHeight="1">
+    <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="4"/>
@@ -5763,10 +5784,10 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="25.5" customHeight="1">
+    <row r="30" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="4"/>
@@ -5774,10 +5795,10 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="4"/>
@@ -5785,10 +5806,10 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="38.25" customHeight="1">
+    <row r="32" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="4"/>
@@ -5796,7 +5817,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="13.5" thickBot="1">
+    <row r="33" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -5805,7 +5826,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="9"/>
@@ -5814,10 +5835,10 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="4"/>
@@ -5825,7 +5846,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="10"/>
       <c r="C36" s="8"/>
@@ -5834,10 +5855,10 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="4"/>
@@ -5845,10 +5866,10 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="4"/>
@@ -5856,10 +5877,10 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="4"/>
@@ -5867,21 +5888,21 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="25.5" customHeight="1">
+    <row r="40" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:7" ht="13.5" thickBot="1">
+    <row r="42" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C42" s="17"/>
     </row>
@@ -5896,7 +5917,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
       <formula1>"32,64"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5907,15 +5928,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:O64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <pane ySplit="7" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="K12:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
@@ -5933,16 +5954,16 @@
     <col min="15" max="15" width="30.140625" style="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15">
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-    </row>
-    <row r="2" spans="2:15" ht="27.75">
+    <row r="1" spans="2:15" ht="15" x14ac:dyDescent="0.3">
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+    </row>
+    <row r="2" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="108" t="s">
         <v>11</v>
@@ -5953,7 +5974,7 @@
       <c r="G2" s="77"/>
       <c r="H2" s="77"/>
     </row>
-    <row r="3" spans="2:15" ht="15">
+    <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="38"/>
       <c r="D3" s="70"/>
@@ -5962,10 +5983,10 @@
       <c r="G3" s="78"/>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="2:15" ht="13.5" thickBot="1">
+    <row r="4" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="60" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D4" s="71"/>
       <c r="E4" s="2"/>
@@ -5973,7 +5994,7 @@
       <c r="G4" s="79"/>
       <c r="H4" s="79"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="72"/>
@@ -5982,174 +6003,198 @@
       <c r="G5" s="72"/>
       <c r="H5" s="72"/>
     </row>
-    <row r="6" spans="2:15" ht="13.5" thickBot="1"/>
-    <row r="7" spans="2:15" s="61" customFormat="1" ht="28.5">
+    <row r="6" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:15" s="61" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="H7" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="I7" s="83" t="s">
         <v>60</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="83" t="s">
-        <v>65</v>
       </c>
       <c r="J7" s="86" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="65" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L7" s="68" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M7" s="65" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N7" s="89"/>
       <c r="O7" s="89"/>
     </row>
-    <row r="8" spans="2:15" s="73" customFormat="1" ht="51">
-      <c r="B8" s="192" t="s">
+    <row r="8" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B8" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="186">
+        <v>1</v>
+      </c>
+      <c r="D8" s="184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="188" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="184">
-        <v>1</v>
-      </c>
-      <c r="D8" s="183" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="197" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="84"/>
+      <c r="I8" s="84" t="s">
+        <v>163</v>
+      </c>
       <c r="J8" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="74"/>
-      <c r="L8" s="104"/>
+        <v>107</v>
+      </c>
+      <c r="K8" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="104" t="s">
+        <v>27</v>
+      </c>
       <c r="M8" s="87"/>
       <c r="N8" s="74"/>
       <c r="O8" s="90"/>
     </row>
-    <row r="9" spans="2:15" s="73" customFormat="1" ht="51">
-      <c r="B9" s="193"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="198"/>
+    <row r="9" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="182"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="189"/>
       <c r="F9" s="74" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="84"/>
+        <v>72</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>164</v>
+      </c>
       <c r="J9" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="74"/>
-      <c r="L9" s="104"/>
+        <v>107</v>
+      </c>
+      <c r="K9" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="104" t="s">
+        <v>27</v>
+      </c>
       <c r="M9" s="87"/>
       <c r="N9" s="74"/>
       <c r="O9" s="90"/>
     </row>
-    <row r="10" spans="2:15" s="73" customFormat="1" ht="51">
-      <c r="B10" s="193"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="198"/>
+    <row r="10" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B10" s="182"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="189"/>
       <c r="F10" s="74" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="84"/>
+        <v>72</v>
+      </c>
+      <c r="I10" s="84" t="s">
+        <v>164</v>
+      </c>
       <c r="J10" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="104"/>
+        <v>107</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="104" t="s">
+        <v>27</v>
+      </c>
       <c r="M10" s="87"/>
       <c r="N10" s="74"/>
       <c r="O10" s="90"/>
     </row>
-    <row r="11" spans="2:15" s="73" customFormat="1" ht="63.75">
-      <c r="B11" s="193"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="199"/>
+    <row r="11" spans="2:15" s="73" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="182"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="190"/>
       <c r="F11" s="74" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="84"/>
+        <v>72</v>
+      </c>
+      <c r="I11" s="84" t="s">
+        <v>164</v>
+      </c>
       <c r="J11" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="104"/>
+        <v>107</v>
+      </c>
+      <c r="K11" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="104" t="s">
+        <v>27</v>
+      </c>
       <c r="M11" s="87"/>
       <c r="N11" s="74"/>
       <c r="O11" s="90"/>
     </row>
-    <row r="12" spans="2:15" s="73" customFormat="1" ht="89.25">
-      <c r="B12" s="193"/>
-      <c r="C12" s="184">
+    <row r="12" spans="2:15" s="73" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="182"/>
+      <c r="C12" s="186">
         <v>2</v>
       </c>
-      <c r="D12" s="183" t="s">
-        <v>82</v>
+      <c r="D12" s="184" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F12" s="74" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I12" s="84"/>
       <c r="J12" s="87" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K12" s="74"/>
       <c r="L12" s="104"/>
@@ -6157,25 +6202,25 @@
       <c r="N12" s="74"/>
       <c r="O12" s="90"/>
     </row>
-    <row r="13" spans="2:15" s="73" customFormat="1" ht="102">
-      <c r="B13" s="193"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="181"/>
+    <row r="13" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="B13" s="182"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="191"/>
       <c r="E13" s="74" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F13" s="74" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I13" s="84"/>
       <c r="J13" s="87" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K13" s="74"/>
       <c r="L13" s="104"/>
@@ -6183,25 +6228,25 @@
       <c r="N13" s="74"/>
       <c r="O13" s="90"/>
     </row>
-    <row r="14" spans="2:15" s="73" customFormat="1" ht="114.75">
-      <c r="B14" s="194"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="195"/>
+    <row r="14" spans="2:15" s="73" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="183"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="185"/>
       <c r="E14" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="81" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="81" t="s">
-        <v>92</v>
       </c>
       <c r="I14" s="84"/>
       <c r="J14" s="87" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K14" s="74"/>
       <c r="L14" s="104"/>
@@ -6209,29 +6254,31 @@
       <c r="N14" s="74"/>
       <c r="O14" s="90"/>
     </row>
-    <row r="15" spans="2:15" s="73" customFormat="1" ht="102">
-      <c r="B15" s="84"/>
-      <c r="C15" s="184">
+    <row r="15" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="B15" s="205" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="186">
         <v>3</v>
       </c>
-      <c r="D15" s="183" t="s">
-        <v>93</v>
+      <c r="D15" s="184" t="s">
+        <v>88</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I15" s="84"/>
       <c r="J15" s="87" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K15" s="74"/>
       <c r="L15" s="104"/>
@@ -6239,21 +6286,21 @@
       <c r="N15" s="74"/>
       <c r="O15" s="90"/>
     </row>
-    <row r="16" spans="2:15" s="73" customFormat="1" ht="102">
-      <c r="B16" s="84"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="195"/>
+    <row r="16" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="B16" s="206"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="185"/>
       <c r="E16" s="74" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H16" s="81" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I16" s="84"/>
       <c r="J16" s="87"/>
@@ -6263,29 +6310,29 @@
       <c r="N16" s="74"/>
       <c r="O16" s="90"/>
     </row>
-    <row r="17" spans="2:15" s="73" customFormat="1" ht="51">
-      <c r="B17" s="84"/>
-      <c r="C17" s="84">
+    <row r="17" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B17" s="207"/>
+      <c r="C17" s="208">
         <v>4</v>
       </c>
-      <c r="D17" s="74" t="s">
-        <v>101</v>
+      <c r="D17" s="188" t="s">
+        <v>96</v>
       </c>
       <c r="E17" s="74" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I17" s="84"/>
       <c r="J17" s="87" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K17" s="74"/>
       <c r="L17" s="104"/>
@@ -6293,474 +6340,425 @@
       <c r="N17" s="74"/>
       <c r="O17" s="90"/>
     </row>
-    <row r="18" spans="2:15" s="73" customFormat="1" ht="145.5" customHeight="1">
-      <c r="B18" s="188" t="s">
+    <row r="18" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" s="123"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="199" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="199" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="200" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="201"/>
+      <c r="J18" s="202" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="199"/>
+      <c r="L18" s="203"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="199"/>
+      <c r="O18" s="204"/>
+    </row>
+    <row r="19" spans="2:15" s="73" customFormat="1" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="181" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="186">
+        <v>5</v>
+      </c>
+      <c r="D19" s="184" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="184">
-        <v>5</v>
-      </c>
-      <c r="D18" s="183" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="122" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="121" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K18" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="N18" s="75"/>
-      <c r="O18" s="91"/>
-    </row>
-    <row r="19" spans="2:15" s="73" customFormat="1" ht="195.75" customHeight="1">
-      <c r="B19" s="189"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="180" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="82" t="s">
-        <v>119</v>
-      </c>
       <c r="I19" s="82" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J19" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="M19" s="88" t="s">
-        <v>115</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K19" s="75"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="88"/>
       <c r="N19" s="75"/>
       <c r="O19" s="91"/>
     </row>
-    <row r="20" spans="2:15" s="73" customFormat="1" ht="171" customHeight="1">
-      <c r="B20" s="189"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
+    <row r="20" spans="2:15" s="73" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="182"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="193" t="s">
+        <v>110</v>
+      </c>
       <c r="F20" s="75" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J20" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="88" t="s">
-        <v>115</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K20" s="75"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="88"/>
       <c r="N20" s="75"/>
       <c r="O20" s="91"/>
     </row>
-    <row r="21" spans="2:15" s="73" customFormat="1" ht="205.5" customHeight="1">
-      <c r="B21" s="189"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
+    <row r="21" spans="2:15" s="73" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="182"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
       <c r="F21" s="75" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H21" s="82" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I21" s="82" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J21" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" s="88" t="s">
-        <v>115</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K21" s="75"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="88"/>
       <c r="N21" s="75"/>
       <c r="O21" s="91"/>
     </row>
-    <row r="22" spans="2:15" s="73" customFormat="1" ht="114.75">
-      <c r="B22" s="189"/>
-      <c r="C22" s="191">
-        <v>6</v>
-      </c>
-      <c r="D22" s="180" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>116</v>
-      </c>
+    <row r="22" spans="2:15" s="73" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="182"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
       <c r="F22" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="75" t="s">
-        <v>128</v>
+        <v>117</v>
+      </c>
+      <c r="G22" s="121" t="s">
+        <v>118</v>
       </c>
       <c r="H22" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="85" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+      <c r="I22" s="82" t="s">
+        <v>119</v>
       </c>
       <c r="J22" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="88" t="s">
-        <v>115</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K22" s="75"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="88"/>
       <c r="N22" s="75"/>
       <c r="O22" s="91"/>
     </row>
-    <row r="23" spans="2:15" s="73" customFormat="1" ht="153">
-      <c r="B23" s="189"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="181"/>
+    <row r="23" spans="2:15" s="73" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="182"/>
+      <c r="C23" s="196">
+        <v>6</v>
+      </c>
+      <c r="D23" s="193" t="s">
+        <v>120</v>
+      </c>
       <c r="E23" s="75" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F23" s="75" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G23" s="75" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I23" s="85" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J23" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="L23" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="M23" s="88" t="s">
-        <v>115</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K23" s="75"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="88"/>
       <c r="N23" s="75"/>
       <c r="O23" s="91"/>
     </row>
-    <row r="24" spans="2:15" s="73" customFormat="1" ht="127.5">
-      <c r="B24" s="189"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="181"/>
+    <row r="24" spans="2:15" s="73" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="B24" s="182"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="191"/>
       <c r="E24" s="75" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F24" s="75" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G24" s="75" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="I24" s="82" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="I24" s="85" t="s">
+        <v>128</v>
       </c>
       <c r="J24" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="L24" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="88" t="s">
-        <v>115</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K24" s="75"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="88"/>
       <c r="N24" s="75"/>
       <c r="O24" s="91"/>
     </row>
-    <row r="25" spans="2:15" s="73" customFormat="1" ht="102">
-      <c r="B25" s="190"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="182"/>
+    <row r="25" spans="2:15" s="73" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="182"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="191"/>
       <c r="E25" s="75" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F25" s="75" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G25" s="75" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H25" s="82" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I25" s="82" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J25" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K25" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" s="105" t="s">
-        <v>114</v>
-      </c>
-      <c r="M25" s="88" t="s">
-        <v>115</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K25" s="75"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="88"/>
       <c r="N25" s="75"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B26" s="187" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="191">
-        <v>7</v>
-      </c>
-      <c r="D26" s="180" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="180" t="s">
-        <v>145</v>
+    <row r="26" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="B26" s="198"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="75" t="s">
+        <v>133</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G26" s="75" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="85" t="s">
-        <v>149</v>
+        <v>136</v>
+      </c>
+      <c r="I26" s="82" t="s">
+        <v>136</v>
       </c>
       <c r="J26" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K26" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="L26" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="M26" s="88" t="s">
-        <v>115</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K26" s="75"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="88"/>
       <c r="N26" s="75"/>
       <c r="O26" s="91"/>
     </row>
-    <row r="27" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B27" s="200"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="181"/>
+    <row r="27" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="197" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="196">
+        <v>7</v>
+      </c>
+      <c r="D27" s="193" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="193" t="s">
+        <v>139</v>
+      </c>
       <c r="F27" s="75" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G27" s="75" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H27" s="82" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I27" s="85" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="J27" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="L27" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="M27" s="88" t="s">
-        <v>115</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K27" s="75"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="88"/>
       <c r="N27" s="75"/>
       <c r="O27" s="91"/>
     </row>
-    <row r="28" spans="2:15" s="73" customFormat="1" ht="87" customHeight="1">
-      <c r="B28" s="200"/>
-      <c r="C28" s="191">
-        <v>8</v>
-      </c>
-      <c r="D28" s="180" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="180" t="s">
+    <row r="28" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="182"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="75" t="s">
-        <v>156</v>
-      </c>
       <c r="G28" s="75" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H28" s="82" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I28" s="85" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="J28" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="K28" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="L28" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="M28" s="88" t="s">
-        <v>115</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K28" s="75"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="88"/>
       <c r="N28" s="75"/>
       <c r="O28" s="91"/>
     </row>
-    <row r="29" spans="2:15" s="73" customFormat="1" ht="102" customHeight="1">
-      <c r="B29" s="200"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="181"/>
+    <row r="29" spans="2:15" s="73" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="182"/>
+      <c r="C29" s="196">
+        <v>8</v>
+      </c>
+      <c r="D29" s="193" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="193" t="s">
+        <v>139</v>
+      </c>
       <c r="F29" s="75" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G29" s="75" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="I29" s="85" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J29" s="88" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K29" s="75" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L29" s="105" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M29" s="88" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="91"/>
     </row>
-    <row r="30" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B30" s="201"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="195"/>
+    <row r="30" spans="2:15" s="73" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="182"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
       <c r="F30" s="75" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G30" s="75" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J30" s="88" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K30" s="75" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L30" s="105" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M30" s="88" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N30" s="75"/>
       <c r="O30" s="91"/>
     </row>
-    <row r="31" spans="2:15">
-      <c r="C31" s="62"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-    </row>
-    <row r="32" spans="2:15">
+    <row r="31" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="183"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="185"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="J31" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="M31" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="N31" s="75"/>
+      <c r="O31" s="91"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C32" s="62"/>
       <c r="D32" s="76"/>
       <c r="E32" s="62"/>
@@ -6775,7 +6773,7 @@
       <c r="N32" s="76"/>
       <c r="O32" s="76"/>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" s="62"/>
       <c r="D33" s="76"/>
       <c r="E33" s="62"/>
@@ -6790,7 +6788,7 @@
       <c r="N33" s="76"/>
       <c r="O33" s="76"/>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C34" s="62"/>
       <c r="D34" s="76"/>
       <c r="E34" s="62"/>
@@ -6805,7 +6803,7 @@
       <c r="N34" s="76"/>
       <c r="O34" s="76"/>
     </row>
-    <row r="35" spans="3:15">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35" s="62"/>
       <c r="D35" s="76"/>
       <c r="E35" s="62"/>
@@ -6820,7 +6818,7 @@
       <c r="N35" s="76"/>
       <c r="O35" s="76"/>
     </row>
-    <row r="36" spans="3:15">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C36" s="62"/>
       <c r="D36" s="76"/>
       <c r="E36" s="62"/>
@@ -6835,7 +6833,7 @@
       <c r="N36" s="76"/>
       <c r="O36" s="76"/>
     </row>
-    <row r="37" spans="3:15">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C37" s="62"/>
       <c r="D37" s="76"/>
       <c r="E37" s="62"/>
@@ -6850,7 +6848,7 @@
       <c r="N37" s="76"/>
       <c r="O37" s="76"/>
     </row>
-    <row r="38" spans="3:15">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C38" s="62"/>
       <c r="D38" s="76"/>
       <c r="E38" s="62"/>
@@ -6865,7 +6863,7 @@
       <c r="N38" s="76"/>
       <c r="O38" s="76"/>
     </row>
-    <row r="39" spans="3:15">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C39" s="62"/>
       <c r="D39" s="76"/>
       <c r="E39" s="62"/>
@@ -6880,7 +6878,7 @@
       <c r="N39" s="76"/>
       <c r="O39" s="76"/>
     </row>
-    <row r="40" spans="3:15">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C40" s="62"/>
       <c r="D40" s="76"/>
       <c r="E40" s="62"/>
@@ -6895,7 +6893,7 @@
       <c r="N40" s="76"/>
       <c r="O40" s="76"/>
     </row>
-    <row r="41" spans="3:15">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C41" s="62"/>
       <c r="D41" s="76"/>
       <c r="E41" s="62"/>
@@ -6910,7 +6908,7 @@
       <c r="N41" s="76"/>
       <c r="O41" s="76"/>
     </row>
-    <row r="42" spans="3:15">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C42" s="62"/>
       <c r="D42" s="76"/>
       <c r="E42" s="62"/>
@@ -6925,7 +6923,7 @@
       <c r="N42" s="76"/>
       <c r="O42" s="76"/>
     </row>
-    <row r="43" spans="3:15">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C43" s="62"/>
       <c r="D43" s="76"/>
       <c r="E43" s="62"/>
@@ -6940,7 +6938,7 @@
       <c r="N43" s="76"/>
       <c r="O43" s="76"/>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C44" s="62"/>
       <c r="D44" s="76"/>
       <c r="E44" s="62"/>
@@ -6955,7 +6953,7 @@
       <c r="N44" s="76"/>
       <c r="O44" s="76"/>
     </row>
-    <row r="45" spans="3:15">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C45" s="62"/>
       <c r="D45" s="76"/>
       <c r="E45" s="62"/>
@@ -6970,7 +6968,7 @@
       <c r="N45" s="76"/>
       <c r="O45" s="76"/>
     </row>
-    <row r="46" spans="3:15">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C46" s="62"/>
       <c r="D46" s="76"/>
       <c r="E46" s="62"/>
@@ -6985,7 +6983,7 @@
       <c r="N46" s="76"/>
       <c r="O46" s="76"/>
     </row>
-    <row r="47" spans="3:15">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C47" s="62"/>
       <c r="D47" s="76"/>
       <c r="E47" s="62"/>
@@ -7000,7 +6998,7 @@
       <c r="N47" s="76"/>
       <c r="O47" s="76"/>
     </row>
-    <row r="48" spans="3:15">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C48" s="62"/>
       <c r="D48" s="76"/>
       <c r="E48" s="62"/>
@@ -7015,7 +7013,7 @@
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
     </row>
-    <row r="49" spans="3:15">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="62"/>
       <c r="D49" s="76"/>
       <c r="E49" s="62"/>
@@ -7030,7 +7028,7 @@
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
     </row>
-    <row r="50" spans="3:15">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="62"/>
       <c r="D50" s="76"/>
       <c r="E50" s="62"/>
@@ -7045,7 +7043,7 @@
       <c r="N50" s="76"/>
       <c r="O50" s="76"/>
     </row>
-    <row r="51" spans="3:15">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="62"/>
       <c r="D51" s="76"/>
       <c r="E51" s="62"/>
@@ -7060,7 +7058,7 @@
       <c r="N51" s="76"/>
       <c r="O51" s="76"/>
     </row>
-    <row r="52" spans="3:15">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="62"/>
       <c r="D52" s="76"/>
       <c r="E52" s="62"/>
@@ -7075,7 +7073,7 @@
       <c r="N52" s="76"/>
       <c r="O52" s="76"/>
     </row>
-    <row r="53" spans="3:15">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="62"/>
       <c r="D53" s="76"/>
       <c r="E53" s="62"/>
@@ -7090,7 +7088,7 @@
       <c r="N53" s="76"/>
       <c r="O53" s="76"/>
     </row>
-    <row r="54" spans="3:15">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="62"/>
       <c r="D54" s="76"/>
       <c r="E54" s="62"/>
@@ -7105,7 +7103,7 @@
       <c r="N54" s="76"/>
       <c r="O54" s="76"/>
     </row>
-    <row r="55" spans="3:15">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="62"/>
       <c r="D55" s="76"/>
       <c r="E55" s="62"/>
@@ -7120,7 +7118,7 @@
       <c r="N55" s="76"/>
       <c r="O55" s="76"/>
     </row>
-    <row r="56" spans="3:15">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="62"/>
       <c r="D56" s="76"/>
       <c r="E56" s="62"/>
@@ -7135,7 +7133,7 @@
       <c r="N56" s="76"/>
       <c r="O56" s="76"/>
     </row>
-    <row r="57" spans="3:15">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="62"/>
       <c r="D57" s="76"/>
       <c r="E57" s="62"/>
@@ -7150,7 +7148,7 @@
       <c r="N57" s="76"/>
       <c r="O57" s="76"/>
     </row>
-    <row r="58" spans="3:15">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="62"/>
       <c r="D58" s="76"/>
       <c r="E58" s="62"/>
@@ -7165,7 +7163,7 @@
       <c r="N58" s="76"/>
       <c r="O58" s="76"/>
     </row>
-    <row r="59" spans="3:15">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="62"/>
       <c r="D59" s="76"/>
       <c r="E59" s="62"/>
@@ -7180,7 +7178,7 @@
       <c r="N59" s="76"/>
       <c r="O59" s="76"/>
     </row>
-    <row r="60" spans="3:15">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="62"/>
       <c r="D60" s="76"/>
       <c r="E60" s="62"/>
@@ -7195,7 +7193,7 @@
       <c r="N60" s="76"/>
       <c r="O60" s="76"/>
     </row>
-    <row r="61" spans="3:15">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="62"/>
       <c r="D61" s="76"/>
       <c r="E61" s="62"/>
@@ -7210,7 +7208,7 @@
       <c r="N61" s="76"/>
       <c r="O61" s="76"/>
     </row>
-    <row r="62" spans="3:15">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="62"/>
       <c r="D62" s="76"/>
       <c r="E62" s="62"/>
@@ -7225,7 +7223,7 @@
       <c r="N62" s="76"/>
       <c r="O62" s="76"/>
     </row>
-    <row r="63" spans="3:15">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="62"/>
       <c r="D63" s="76"/>
       <c r="E63" s="62"/>
@@ -7240,7 +7238,7 @@
       <c r="N63" s="76"/>
       <c r="O63" s="76"/>
     </row>
-    <row r="64" spans="3:15">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="62"/>
       <c r="D64" s="76"/>
       <c r="E64" s="62"/>
@@ -7255,8 +7253,36 @@
       <c r="N64" s="76"/>
       <c r="O64" s="76"/>
     </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C65" s="62"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="76"/>
+      <c r="O65" s="76"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B8:B14"/>
     <mergeCell ref="D15:D16"/>
@@ -7266,23 +7292,12 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C12:C14"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J30" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J31">
       <formula1>"-,Pass,Pass With Issue,Fail,TBD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCaseDocument_IzabelaPabich_WojciechPełka.xlsx
+++ b/TestCaseDocument_IzabelaPabich_WojciechPełka.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="170">
   <si>
     <t>przykładowe logo/obraz</t>
   </si>
@@ -238,9 +238,6 @@
 4. Wciśnij 'Zaloguj'</t>
   </si>
   <si>
-    <t>Użytkownik zostaje zalogowany</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
 2. Wprowadź błędny login
 3. Wprowadź poprawne hasło
 4. Wciśnij 'Zaloguj'</t>
-  </si>
-  <si>
-    <t>Użytkonik nie zostaje zalogowany</t>
   </si>
   <si>
     <t>1.3</t>
@@ -288,9 +282,6 @@
 3. Wciśnij 'Edytuj' przy przedmiocie z przypisanymi już wszystkimi godzinami.
 4. Wpisz w polu 'Godziny' 15
 5. Zapisz edycję</t>
-  </si>
-  <si>
-    <t>System wyświetla komunikat "Liczba godzin przekroczona" i nie zapisuje zmian.</t>
   </si>
   <si>
     <t>Użytkownik ma przypisany przedmiot, który ma do przypisania 30h, ale do tej pory przypisane jest 15h na wykłady.</t>
@@ -318,13 +309,7 @@
 6. Zapisz edycję</t>
   </si>
   <si>
-    <t>System zapisuje zmiany (wysyła powiadomienie o modyfikacji do amdinistratora systemu).</t>
-  </si>
-  <si>
     <t>Usunięcie pracownika przez administratora</t>
-  </si>
-  <si>
-    <t>Użytkownik systemu zalogowany jako administrator. Usuwany użytkownik nie jest akutualnie zalogowany.</t>
   </si>
   <si>
     <t>3.1</t>
@@ -337,9 +322,6 @@
   </si>
   <si>
     <t>System usuwa użytkownika (nie widać go już na liście).</t>
-  </si>
-  <si>
-    <t>Użytkownik systemu zalogowany jako administrator. Usuwany użytkownik jest akutualnie zalogowany.</t>
   </si>
   <si>
     <t>3.2</t>
@@ -613,6 +595,27 @@
   </si>
   <si>
     <t>System nie wyświetli żadnego przycisku 'Szczegóły', ponieważ administrator nie ma powiadomień.</t>
+  </si>
+  <si>
+    <t>Użytkownik systemu zalogowany jako administrator. Usuwany użytkownik nie jest aktualnie zalogowany.</t>
+  </si>
+  <si>
+    <t>Użytkownik systemu zalogowany jako administrator. Usuwany użytkownik jest aktualnie zalogowany.</t>
+  </si>
+  <si>
+    <t>System wykonuje zapytanie do bazy i zwraca instancję użytkownika o podanym loginie i haśle. Użytkownik zostaje zalogowany</t>
+  </si>
+  <si>
+    <t>System wykonuje zapytanie do bazy i zwraca null, gdyż nie odnajduje użytkownika o podanym loginie i haśle. Użytkonik nie zostaje zalogowany</t>
+  </si>
+  <si>
+    <t>System wykonuje zapytanie do bazy i zwraca null, gdyż nie odnajduje użytkownika o podanym loginie i haśleUżytkonik nie zostaje zalogowany</t>
+  </si>
+  <si>
+    <t>System przelicza godziny i wyświetla komunikat "Liczba godzin przekroczona" i nie zapisuje zmian.</t>
+  </si>
+  <si>
+    <t>System przelicza godziny i zapisuje zmiany (wysyła powiadomienie o modyfikacji do amdinistratora systemu).</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1746,9 +1749,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1989,15 +1989,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2619,18 +2610,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="136"/>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
+      <c r="A1" s="135"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
@@ -2766,16 +2757,16 @@
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
       <c r="J10" s="25"/>
       <c r="K10" s="26"/>
       <c r="L10" s="24"/>
@@ -2801,17 +2792,17 @@
     </row>
     <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="128"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="127"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -2821,15 +2812,15 @@
       <c r="B13" s="28">
         <v>1</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
       <c r="J13" s="24"/>
       <c r="K13" s="29"/>
       <c r="L13" s="24"/>
@@ -2839,15 +2830,15 @@
     </row>
     <row r="14" spans="1:17" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="31"/>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="32"/>
       <c r="K14" s="33"/>
     </row>
@@ -2855,29 +2846,29 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
       <c r="J15" s="24"/>
       <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
       <c r="J16" s="24"/>
       <c r="K16" s="29"/>
     </row>
@@ -2885,29 +2876,29 @@
       <c r="B17" s="28">
         <v>3</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="24"/>
       <c r="K17" s="29"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="28"/>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
       <c r="J18" s="24"/>
       <c r="K18" s="29"/>
     </row>
@@ -2915,29 +2906,29 @@
       <c r="B19" s="28">
         <v>4</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
       <c r="J19" s="24"/>
       <c r="K19" s="29"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="28"/>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
       <c r="J20" s="24"/>
       <c r="K20" s="29"/>
     </row>
@@ -2980,121 +2971,121 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="24"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="24"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="24"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
     <row r="31" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="24"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="24"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="24"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
@@ -3641,15 +3632,15 @@
     </row>
     <row r="80" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="24"/>
-      <c r="C80" s="125"/>
-      <c r="D80" s="125"/>
-      <c r="E80" s="125"/>
-      <c r="F80" s="125"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="125"/>
-      <c r="I80" s="125"/>
-      <c r="J80" s="125"/>
-      <c r="K80" s="125"/>
+      <c r="C80" s="124"/>
+      <c r="D80" s="124"/>
+      <c r="E80" s="124"/>
+      <c r="F80" s="124"/>
+      <c r="G80" s="124"/>
+      <c r="H80" s="124"/>
+      <c r="I80" s="124"/>
+      <c r="J80" s="124"/>
+      <c r="K80" s="124"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="24"/>
@@ -3869,14 +3860,14 @@
     </row>
     <row r="99" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="24"/>
-      <c r="C99" s="125"/>
-      <c r="D99" s="125"/>
-      <c r="E99" s="125"/>
-      <c r="F99" s="125"/>
-      <c r="G99" s="125"/>
-      <c r="H99" s="125"/>
-      <c r="I99" s="125"/>
-      <c r="J99" s="125"/>
+      <c r="C99" s="124"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="124"/>
+      <c r="F99" s="124"/>
+      <c r="G99" s="124"/>
+      <c r="H99" s="124"/>
+      <c r="I99" s="124"/>
+      <c r="J99" s="124"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
@@ -3893,25 +3884,25 @@
     </row>
     <row r="101" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="24"/>
-      <c r="C101" s="124"/>
-      <c r="D101" s="124"/>
-      <c r="E101" s="124"/>
-      <c r="F101" s="124"/>
-      <c r="G101" s="124"/>
-      <c r="H101" s="124"/>
-      <c r="I101" s="124"/>
+      <c r="C101" s="123"/>
+      <c r="D101" s="123"/>
+      <c r="E101" s="123"/>
+      <c r="F101" s="123"/>
+      <c r="G101" s="123"/>
+      <c r="H101" s="123"/>
+      <c r="I101" s="123"/>
       <c r="J101" s="24"/>
       <c r="K101" s="24"/>
     </row>
     <row r="102" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="24"/>
-      <c r="C102" s="125"/>
-      <c r="D102" s="125"/>
-      <c r="E102" s="125"/>
-      <c r="F102" s="125"/>
-      <c r="G102" s="125"/>
-      <c r="H102" s="125"/>
-      <c r="I102" s="125"/>
+      <c r="C102" s="124"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="124"/>
+      <c r="F102" s="124"/>
+      <c r="G102" s="124"/>
+      <c r="H102" s="124"/>
+      <c r="I102" s="124"/>
       <c r="J102" s="24"/>
       <c r="K102" s="24"/>
     </row>
@@ -3989,15 +3980,15 @@
     </row>
     <row r="109" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="24"/>
-      <c r="C109" s="135"/>
-      <c r="D109" s="135"/>
-      <c r="E109" s="135"/>
-      <c r="F109" s="135"/>
-      <c r="G109" s="135"/>
-      <c r="H109" s="135"/>
-      <c r="I109" s="135"/>
-      <c r="J109" s="135"/>
-      <c r="K109" s="135"/>
+      <c r="C109" s="134"/>
+      <c r="D109" s="134"/>
+      <c r="E109" s="134"/>
+      <c r="F109" s="134"/>
+      <c r="G109" s="134"/>
+      <c r="H109" s="134"/>
+      <c r="I109" s="134"/>
+      <c r="J109" s="134"/>
+      <c r="K109" s="134"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="24"/>
@@ -4205,27 +4196,27 @@
     </row>
     <row r="127" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="24"/>
-      <c r="C127" s="125"/>
-      <c r="D127" s="125"/>
-      <c r="E127" s="125"/>
-      <c r="F127" s="125"/>
-      <c r="G127" s="125"/>
-      <c r="H127" s="125"/>
-      <c r="I127" s="125"/>
-      <c r="J127" s="125"/>
-      <c r="K127" s="125"/>
+      <c r="C127" s="124"/>
+      <c r="D127" s="124"/>
+      <c r="E127" s="124"/>
+      <c r="F127" s="124"/>
+      <c r="G127" s="124"/>
+      <c r="H127" s="124"/>
+      <c r="I127" s="124"/>
+      <c r="J127" s="124"/>
+      <c r="K127" s="124"/>
     </row>
     <row r="128" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="24"/>
-      <c r="C128" s="126"/>
-      <c r="D128" s="125"/>
-      <c r="E128" s="125"/>
-      <c r="F128" s="125"/>
-      <c r="G128" s="125"/>
-      <c r="H128" s="125"/>
-      <c r="I128" s="125"/>
-      <c r="J128" s="125"/>
-      <c r="K128" s="125"/>
+      <c r="C128" s="125"/>
+      <c r="D128" s="124"/>
+      <c r="E128" s="124"/>
+      <c r="F128" s="124"/>
+      <c r="G128" s="124"/>
+      <c r="H128" s="124"/>
+      <c r="I128" s="124"/>
+      <c r="J128" s="124"/>
+      <c r="K128" s="124"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B129" s="24"/>
@@ -4578,20 +4569,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
       <c r="M1" s="44"/>
       <c r="P1" s="40"/>
     </row>
@@ -4620,20 +4611,20 @@
       <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
       <c r="M5" s="42"/>
       <c r="P5" s="40"/>
     </row>
@@ -4746,18 +4737,18 @@
       <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="159"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
       <c r="M13" s="48"/>
       <c r="N13" s="43"/>
       <c r="P13" s="40"/>
@@ -4781,40 +4772,40 @@
       <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="162"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
     </row>
     <row r="18" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
@@ -4828,43 +4819,43 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="157"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="164" t="str">
+      <c r="C20" s="156"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="163" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>TestCaseDocument_IzabelaPabich_WojciechPełka.xlsx</v>
       </c>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="166"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="165"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="145" t="s">
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
@@ -4921,10 +4912,10 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="156" t="s">
+      <c r="B25" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="158"/>
+      <c r="C25" s="157"/>
       <c r="D25" s="118" t="s">
         <v>23</v>
       </c>
@@ -4933,127 +4924,127 @@
       <c r="G25" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="139" t="s">
+      <c r="H25" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="139"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="149"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="141"/>
       <c r="G26" s="59"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="149"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="141"/>
       <c r="G27" s="59"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="144"/>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="149"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
       <c r="G28" s="59"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="144"/>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="149"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="141"/>
       <c r="G29" s="59"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="149"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="141"/>
       <c r="G30" s="59"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="149"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="142"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="141"/>
       <c r="G31" s="59"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="149"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="155"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="154"/>
       <c r="G32" s="59"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="148"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="147"/>
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -5110,57 +5101,57 @@
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="156" t="s">
+      <c r="B36" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="141"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="156" t="s">
+      <c r="C36" s="140"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="157"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="139" t="s">
+      <c r="F36" s="156"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="139"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="153"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143"/>
-      <c r="N37" s="143"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="142"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="142"/>
+      <c r="N37" s="142"/>
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="140"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -5170,13 +5161,13 @@
       <c r="E39" s="114"/>
       <c r="F39" s="116"/>
       <c r="G39" s="115"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="143"/>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="142"/>
+      <c r="N39" s="142"/>
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -5186,13 +5177,13 @@
       <c r="E40" s="114"/>
       <c r="F40" s="116"/>
       <c r="G40" s="115"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="143"/>
-      <c r="K40" s="143"/>
-      <c r="L40" s="143"/>
-      <c r="M40" s="143"/>
-      <c r="N40" s="143"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="142"/>
+      <c r="M40" s="142"/>
+      <c r="N40" s="142"/>
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -5202,13 +5193,13 @@
       <c r="E41" s="114"/>
       <c r="F41" s="116"/>
       <c r="G41" s="115"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="143"/>
-      <c r="K41" s="143"/>
-      <c r="L41" s="143"/>
-      <c r="M41" s="143"/>
-      <c r="N41" s="143"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="142"/>
+      <c r="K41" s="142"/>
+      <c r="L41" s="142"/>
+      <c r="M41" s="142"/>
+      <c r="N41" s="142"/>
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -5218,13 +5209,13 @@
       <c r="E42" s="114"/>
       <c r="F42" s="116"/>
       <c r="G42" s="115"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="143"/>
-      <c r="K42" s="143"/>
-      <c r="L42" s="143"/>
-      <c r="M42" s="143"/>
-      <c r="N42" s="143"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="142"/>
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -5494,14 +5485,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="169"/>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="A1" s="168"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
@@ -5548,79 +5539,79 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="172"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="171"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="175"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="174"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="175"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="174"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="175"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="174"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="175"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="175"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="174"/>
     </row>
     <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="175"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="174"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="178"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="180"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="179"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
@@ -5669,10 +5660,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="167" t="s">
+      <c r="B19" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="168"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -5931,9 +5922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="K12:L12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5955,13 +5946,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
@@ -6044,17 +6035,17 @@
       <c r="N7" s="89"/>
       <c r="O7" s="89"/>
     </row>
-    <row r="8" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B8" s="181" t="s">
+    <row r="8" spans="2:15" s="73" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="186">
+      <c r="C8" s="185">
         <v>1</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="188" t="s">
+      <c r="E8" s="187" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="74" t="s">
@@ -6064,13 +6055,13 @@
         <v>67</v>
       </c>
       <c r="H8" s="81" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J8" s="87" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K8" s="74" t="s">
         <v>26</v>
@@ -6082,25 +6073,25 @@
       <c r="N8" s="74"/>
       <c r="O8" s="90"/>
     </row>
-    <row r="9" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B9" s="182"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="189"/>
+    <row r="9" spans="2:15" s="73" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="181"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="188"/>
       <c r="F9" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="74" t="s">
-        <v>71</v>
-      </c>
       <c r="H9" s="81" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="I9" s="84" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J9" s="87" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K9" s="74" t="s">
         <v>26</v>
@@ -6112,25 +6103,25 @@
       <c r="N9" s="74"/>
       <c r="O9" s="90"/>
     </row>
-    <row r="10" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B10" s="182"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="189"/>
+    <row r="10" spans="2:15" s="73" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="181"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="188"/>
       <c r="F10" s="74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="I10" s="84" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J10" s="87" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K10" s="74" t="s">
         <v>26</v>
@@ -6142,25 +6133,25 @@
       <c r="N10" s="74"/>
       <c r="O10" s="90"/>
     </row>
-    <row r="11" spans="2:15" s="73" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="182"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="190"/>
+    <row r="11" spans="2:15" s="73" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="181"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="189"/>
       <c r="F11" s="74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="I11" s="84" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J11" s="87" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K11" s="74" t="s">
         <v>26</v>
@@ -6173,28 +6164,28 @@
       <c r="O11" s="90"/>
     </row>
     <row r="12" spans="2:15" s="73" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="182"/>
-      <c r="C12" s="186">
+      <c r="B12" s="181"/>
+      <c r="C12" s="185">
         <v>2</v>
       </c>
-      <c r="D12" s="184" t="s">
+      <c r="D12" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="G12" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="74" t="s">
-        <v>80</v>
-      </c>
       <c r="H12" s="81" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="I12" s="84"/>
       <c r="J12" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K12" s="74"/>
       <c r="L12" s="104"/>
@@ -6203,24 +6194,24 @@
       <c r="O12" s="90"/>
     </row>
     <row r="13" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="B13" s="182"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="191"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="190"/>
       <c r="E13" s="74" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13" s="74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="I13" s="84"/>
       <c r="J13" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K13" s="74"/>
       <c r="L13" s="104"/>
@@ -6229,24 +6220,24 @@
       <c r="O13" s="90"/>
     </row>
     <row r="14" spans="2:15" s="73" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="183"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="185"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="184"/>
       <c r="E14" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="74" t="s">
-        <v>85</v>
-      </c>
       <c r="G14" s="74" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H14" s="81" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="I14" s="84"/>
       <c r="J14" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" s="74"/>
       <c r="L14" s="104"/>
@@ -6255,30 +6246,30 @@
       <c r="O14" s="90"/>
     </row>
     <row r="15" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="B15" s="205" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="186">
+      <c r="B15" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="185">
         <v>3</v>
       </c>
-      <c r="D15" s="184" t="s">
-        <v>88</v>
+      <c r="D15" s="183" t="s">
+        <v>84</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I15" s="84"/>
       <c r="J15" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K15" s="74"/>
       <c r="L15" s="104"/>
@@ -6287,20 +6278,20 @@
       <c r="O15" s="90"/>
     </row>
     <row r="16" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="B16" s="206"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="185"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="184"/>
       <c r="E16" s="74" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H16" s="81" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I16" s="84"/>
       <c r="J16" s="87"/>
@@ -6311,28 +6302,28 @@
       <c r="O16" s="90"/>
     </row>
     <row r="17" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B17" s="207"/>
-      <c r="C17" s="208">
+      <c r="B17" s="181"/>
+      <c r="C17" s="204">
         <v>4</v>
       </c>
-      <c r="D17" s="188" t="s">
-        <v>96</v>
+      <c r="D17" s="187" t="s">
+        <v>90</v>
       </c>
       <c r="E17" s="74" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I17" s="84"/>
       <c r="J17" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" s="74"/>
       <c r="L17" s="104"/>
@@ -6341,58 +6332,58 @@
       <c r="O17" s="90"/>
     </row>
     <row r="18" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="123"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="199" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="199" t="s">
-        <v>166</v>
+      <c r="B18" s="182"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="198" t="s">
+        <v>160</v>
       </c>
       <c r="G18" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="200" t="s">
-        <v>168</v>
-      </c>
-      <c r="I18" s="201"/>
-      <c r="J18" s="202" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="199"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="202"/>
-      <c r="N18" s="199"/>
-      <c r="O18" s="204"/>
+        <v>161</v>
+      </c>
+      <c r="H18" s="199" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="200"/>
+      <c r="J18" s="201" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="198"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="198"/>
+      <c r="O18" s="203"/>
     </row>
     <row r="19" spans="2:15" s="73" customFormat="1" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="181" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="186">
+      <c r="B19" s="180" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="185">
         <v>5</v>
       </c>
-      <c r="D19" s="184" t="s">
-        <v>102</v>
+      <c r="D19" s="183" t="s">
+        <v>96</v>
       </c>
       <c r="E19" s="122" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F19" s="75" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G19" s="121" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H19" s="82" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I19" s="82" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J19" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="75"/>
       <c r="L19" s="105"/>
@@ -6401,26 +6392,26 @@
       <c r="O19" s="91"/>
     </row>
     <row r="20" spans="2:15" s="73" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="182"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="193" t="s">
-        <v>110</v>
+      <c r="B20" s="181"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="192" t="s">
+        <v>104</v>
       </c>
       <c r="F20" s="75" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J20" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20" s="75"/>
       <c r="L20" s="105"/>
@@ -6429,24 +6420,24 @@
       <c r="O20" s="91"/>
     </row>
     <row r="21" spans="2:15" s="73" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="182"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
       <c r="F21" s="75" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H21" s="82" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I21" s="82" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J21" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" s="75"/>
       <c r="L21" s="105"/>
@@ -6455,24 +6446,24 @@
       <c r="O21" s="91"/>
     </row>
     <row r="22" spans="2:15" s="73" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="182"/>
-      <c r="C22" s="195"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
       <c r="F22" s="75" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H22" s="82" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I22" s="82" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J22" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" s="75"/>
       <c r="L22" s="105"/>
@@ -6481,30 +6472,30 @@
       <c r="O22" s="91"/>
     </row>
     <row r="23" spans="2:15" s="73" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="182"/>
-      <c r="C23" s="196">
+      <c r="B23" s="181"/>
+      <c r="C23" s="195">
         <v>6</v>
       </c>
-      <c r="D23" s="193" t="s">
-        <v>120</v>
+      <c r="D23" s="192" t="s">
+        <v>114</v>
       </c>
       <c r="E23" s="75" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F23" s="75" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G23" s="75" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I23" s="85" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J23" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23" s="75"/>
       <c r="L23" s="105"/>
@@ -6513,26 +6504,26 @@
       <c r="O23" s="91"/>
     </row>
     <row r="24" spans="2:15" s="73" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="B24" s="182"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="191"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="190"/>
       <c r="E24" s="75" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F24" s="75" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G24" s="75" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I24" s="85" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J24" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24" s="75"/>
       <c r="L24" s="105"/>
@@ -6541,26 +6532,26 @@
       <c r="O24" s="91"/>
     </row>
     <row r="25" spans="2:15" s="73" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="182"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="191"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="190"/>
       <c r="E25" s="75" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F25" s="75" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G25" s="75" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H25" s="82" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I25" s="82" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J25" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25" s="75"/>
       <c r="L25" s="105"/>
@@ -6569,26 +6560,26 @@
       <c r="O25" s="91"/>
     </row>
     <row r="26" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="B26" s="198"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="194"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="193"/>
       <c r="E26" s="75" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G26" s="75" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I26" s="82" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J26" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26" s="75"/>
       <c r="L26" s="105"/>
@@ -6597,32 +6588,32 @@
       <c r="O26" s="91"/>
     </row>
     <row r="27" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="197" t="s">
+      <c r="B27" s="196" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="195">
+        <v>7</v>
+      </c>
+      <c r="D27" s="192" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="196">
-        <v>7</v>
-      </c>
-      <c r="D27" s="193" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="193" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="85" t="s">
-        <v>143</v>
-      </c>
       <c r="J27" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K27" s="75"/>
       <c r="L27" s="105"/>
@@ -6631,24 +6622,24 @@
       <c r="O27" s="91"/>
     </row>
     <row r="28" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="182"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="191"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
       <c r="F28" s="75" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G28" s="75" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H28" s="82" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I28" s="85" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J28" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K28" s="75"/>
       <c r="L28" s="105"/>
@@ -6657,103 +6648,103 @@
       <c r="O28" s="91"/>
     </row>
     <row r="29" spans="2:15" s="73" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="182"/>
-      <c r="C29" s="196">
+      <c r="B29" s="181"/>
+      <c r="C29" s="195">
         <v>8</v>
       </c>
-      <c r="D29" s="193" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="193" t="s">
-        <v>139</v>
+      <c r="D29" s="192" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="192" t="s">
+        <v>133</v>
       </c>
       <c r="F29" s="75" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G29" s="75" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I29" s="85" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J29" s="88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K29" s="75" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L29" s="105" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M29" s="88" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="91"/>
     </row>
     <row r="30" spans="2:15" s="73" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="182"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
       <c r="F30" s="75" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G30" s="75" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J30" s="88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K30" s="75" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L30" s="105" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M30" s="88" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N30" s="75"/>
       <c r="O30" s="91"/>
     </row>
     <row r="31" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="183"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
       <c r="F31" s="75" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G31" s="75" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H31" s="82" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I31" s="85" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J31" s="88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K31" s="75" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L31" s="105" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M31" s="88" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N31" s="75"/>
       <c r="O31" s="91"/>
@@ -7269,7 +7260,7 @@
       <c r="O65" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="C19:C22"/>
@@ -7294,6 +7285,7 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/TestCaseDocument_IzabelaPabich_WojciechPełka.xlsx
+++ b/TestCaseDocument_IzabelaPabich_WojciechPełka.xlsx
@@ -315,22 +315,10 @@
     <t>3.1</t>
   </si>
   <si>
-    <t>1. Zaloguj się
-2. Wyświetl pracowników
-3. Na liście, przy jednym z nich wciśnij 'Usuń'.
-4. Potwiedź usunięcie.</t>
-  </si>
-  <si>
     <t>System usuwa użytkownika (nie widać go już na liście).</t>
   </si>
   <si>
     <t>3.2</t>
-  </si>
-  <si>
-    <t>System wyświelta komunikat "Nie można usunąć, użytkownik zalogowany" i nie usuwa użytkownika.</t>
-  </si>
-  <si>
-    <t>Wyświetlnienie szczegółów powiadomienia przez administratora.</t>
   </si>
   <si>
     <t xml:space="preserve">Użytkownik systemu zalogowany jako administrator. </t>
@@ -351,9 +339,6 @@
   </si>
   <si>
     <t>System powiadomień - Web API - Aplikacja kliencka</t>
-  </si>
-  <si>
-    <t>Uruchomiony system, Użytkownik zalogownay jako nauczyciel</t>
   </si>
   <si>
     <t>5.1</t>
@@ -377,54 +362,13 @@
     <t>Wojciech Pełka</t>
   </si>
   <si>
-    <t>W tym konkretnym przypadku komunikacją z bązą danych i Web API przebiegła prawidłowo</t>
-  </si>
-  <si>
-    <t>Uruchomiony system, Użytkownik zalogownay jako administrator</t>
-  </si>
-  <si>
     <t>5.2</t>
   </si>
   <si>
-    <t>1. Uruchom system
-2. Zaloguj się jako administrator
-3. Przejdź do listy powiadmień
-4. Naciśnij X przy dowolnym powiadmieniu
-5. Wyślij komunikat wraz z ID powiadomienia do Web API o usunięcie powiadomienia.
-6. Web API przesyła ten komunikat do systemu powiadomień. 
-7. System powiadomień na podstawie przesłanego ID usuwa z bazy danych powiadmienie</t>
-  </si>
-  <si>
-    <t>Wybrane powiadmienie zostało usunięte i nie jest widoczne na UI</t>
-  </si>
-  <si>
     <t>5.3</t>
   </si>
   <si>
-    <t>1. Uruchom system
-2. Zaloguj się jako administrator
-3. Przejdź do listy powiadmień
-4. Naciśnij V przy dowolnym powiadmieniu
-5. Wyślij komunikat wraz z ID powiadomienia do Web API o akceptację powiadomienia.
-6. Web API przesyła ten komunikat do systemu powiadomień. 
-7. System powiadomień na podstawie przesłanego ID dodaje zmianę związaną z tym powiadmieniem i przestawia je w status accepted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powiademienie widoczne jako zaakceptowane z panelu administratoar jak i nauczyciela. Widoczna zapsiana już zmiana związana z tym powiadomieniem </t>
-  </si>
-  <si>
     <t>5.4</t>
-  </si>
-  <si>
-    <t>1. Uruchom system
-2. Zaloguj się jako administrator
-3. Przejdź do listy powiadmień
-4. Naciśnij DETAILS przy dowolnym powiadmieniu
-5. Wyślij komunikat wraz z ID powiadomienia do Web API o pobranie danych powiadomienia.
-6. Web API przesyła ten komunikat do systemu powiadomień. 
-7. System powiadomień na podstawie przesłanego ID pobiera informacje o powiadomieniu i przesyła je do Web API.
-8. Web API przesyła dane powiadomienia do klienta
-9. Klient wyświetla szczegóły na UI</t>
   </si>
   <si>
     <t>Widoczne szczegóły danego powiadomienia</t>
@@ -466,9 +410,6 @@
     <t>Nowy użytkownik w bazie danych</t>
   </si>
   <si>
-    <t>Uruchomiony system, Użytkownik zalogownay jako dowolny użytkownik</t>
-  </si>
-  <si>
     <t>6.3</t>
   </si>
   <si>
@@ -479,143 +420,202 @@
 5. Web API pobiera użytkownika z bazy danych na postawie przesłanego ID</t>
   </si>
   <si>
-    <t>Wyświetlnie danych aktualnie zalogowanego użytkownika</t>
-  </si>
-  <si>
-    <t>Uruchomiony system, Użytkownik zalogownay jako dowolny administrator</t>
-  </si>
-  <si>
     <t>6.4</t>
+  </si>
+  <si>
+    <t>Widoczna lista powiadomień z danymi</t>
+  </si>
+  <si>
+    <t>Testy Jednostkowe</t>
+  </si>
+  <si>
+    <t>Test metody pobierającej listę wszystkich przedmiotów po danym ID nauczyciela</t>
+  </si>
+  <si>
+    <t>ID Nauczyciela</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>1. Przekaż poprawny TeacherID do funkcji public List&lt;SUBJECT&gt; GetAllSubjects(int? id)</t>
+  </si>
+  <si>
+    <t>Pobrana lista tylko przedmiotów przypisanych do nauczyciela o danym ID</t>
+  </si>
+  <si>
+    <t>07.12.2017</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>1. Przekaż niepoprawny TeacherID do funkcji public List&lt;SUBJECT&gt; GetAllSubjects(int? id)</t>
+  </si>
+  <si>
+    <t>Zwrócony i obsłużony wyjątek, który mówi o tym, że nie znaleziono użytkownika o podanym ID</t>
+  </si>
+  <si>
+    <t>Wyjątek został przechwycony poprawny, na UI wyświetla się komunikat o błędnym ID nauczyciela</t>
+  </si>
+  <si>
+    <t>Test metody przypisania do nauczyciela nowego przedmiotu</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>1. Utwórz obiekt klasy SUBJECT
+2. Wywołaj metodę public void AssignSubjectToTeacher(int teacherID, SUBJECT subject) z poprawnym parametrem teacherID oraz z utworzonym obiektem</t>
+  </si>
+  <si>
+    <t>System znajdzie nauczyciela po ID i przypisze do niego przekazany przedmiot</t>
+  </si>
+  <si>
+    <t>Do podanego nauczyciela został przypisany przedmiot</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>1. Utwórz obiekt klasy SUBJECT
+2. Wywołaj metodę public void AssignSubjectToTeacher(int teacherID, SUBJECT subject) z niepoprawnym parametrem teacherID oraz z utworzonym obiektem</t>
+  </si>
+  <si>
+    <t>System nie znajdzie nauczyciela po ID i nie przypisze do niego przekazanego przedmiotu. Dodatkowo metoda wywoła i obsłuży wyjątek o braku nauczyciela o podanym ID</t>
+  </si>
+  <si>
+    <t>Metoda wyrzuciła wyjątek, który został przechwycony. Przedmiot nie został do nikogo przypisany</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>1. Wywołaj metodę public void AssignSubjectToTeacher(int teacherID, SUBJECT subject) z poprawnym parametrem teacherID oraz z wartością null dla parametru subject</t>
+  </si>
+  <si>
+    <t>Metoda wykryje, że przekazywany jest obiekt o wartości null i zwróci stosowny komunikat</t>
+  </si>
+  <si>
+    <t>Metoda zwróciła komunikat o tym, że przekazany obiekt przedmiotu jest null</t>
+  </si>
+  <si>
+    <t>Testy funkcjonalne (czarna skrzynka)</t>
+  </si>
+  <si>
+    <t>Użytkownik zalogowany</t>
+  </si>
+  <si>
+    <t>Użytkownik bez dostępu do systemu</t>
+  </si>
+  <si>
+    <t>Użytkownik systemu zalogowany jako administrator.</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>1. Zaloguj się
+2. Panel powiadomień jest pusty.</t>
+  </si>
+  <si>
+    <t>System nie wyświetli żadnego przycisku 'Szczegóły', ponieważ administrator nie ma powiadomień.</t>
+  </si>
+  <si>
+    <t>Użytkownik systemu zalogowany jako administrator. Usuwany użytkownik nie jest aktualnie zalogowany.</t>
+  </si>
+  <si>
+    <t>Użytkownik systemu zalogowany jako administrator. Usuwany użytkownik jest aktualnie zalogowany.</t>
+  </si>
+  <si>
+    <t>System wykonuje zapytanie do bazy i zwraca instancję użytkownika o podanym loginie i haśle. Użytkownik zostaje zalogowany</t>
+  </si>
+  <si>
+    <t>System wykonuje zapytanie do bazy i zwraca null, gdyż nie odnajduje użytkownika o podanym loginie i haśle. Użytkonik nie zostaje zalogowany</t>
+  </si>
+  <si>
+    <t>System wykonuje zapytanie do bazy i zwraca null, gdyż nie odnajduje użytkownika o podanym loginie i haśleUżytkonik nie zostaje zalogowany</t>
+  </si>
+  <si>
+    <t>System przelicza godziny i wyświetla komunikat "Liczba godzin przekroczona" i nie zapisuje zmian.</t>
+  </si>
+  <si>
+    <t>System przelicza godziny i zapisuje zmiany (wysyła powiadomienie o modyfikacji do amdinistratora systemu).</t>
+  </si>
+  <si>
+    <t>1. Zaloguj się
+2. Wyświetl pracowników
+3. Na liście, przy jednym z nich wciśnij 'Usuń'.
+4. Potwierdź usunięcie.</t>
+  </si>
+  <si>
+    <t>System wyświetla komunikat "Nie można usunąć, użytkownik zalogowany" i nie usuwa użytkownika.</t>
+  </si>
+  <si>
+    <t>Wyświetlenie szczegółów powiadomienia przez administratora.</t>
+  </si>
+  <si>
+    <t>Uruchomiony system, Użytkownik zalogowany jako nauczyciel</t>
+  </si>
+  <si>
+    <t>Uruchomiony system, Użytkownik zalogowany jako administrator</t>
+  </si>
+  <si>
+    <t>1. Uruchom system
+2. Zaloguj się jako administrator
+3. Przejdź do listy powiadomień
+4. Naciśnij X przy dowolnym powiadomieniu
+5. Wyślij komunikat wraz z ID powiadomienia do Web API o usunięcie powiadomienia.
+6. Web API przesyła ten komunikat do systemu powiadomień. 
+7. System powiadomień na podstawie przesłanego ID usuwa z bazy danych powiadomienie</t>
+  </si>
+  <si>
+    <t>Wybrane powiadomienie zostało usunięte i nie jest widoczne na UI</t>
+  </si>
+  <si>
+    <t>1. Uruchom system
+2. Zaloguj się jako administrator
+3. Przejdź do listy powiadomień
+4. Naciśnij V przy dowolnym powiadomieniu
+5. Wyślij komunikat wraz z ID powiadomienia do Web API o akceptację powiadomienia.
+6. Web API przesyła ten komunikat do systemu powiadomień. 
+7. System powiadomień na podstawie przesłanego ID dodaje zmianę związaną z tym powiadomieniem i przestawia je w status accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powiadomienie widoczne jako zaakceptowane z panelu administratora jak i nauczyciela. Widoczna zapisana już zmiana związana z tym powiadomieniem </t>
+  </si>
+  <si>
+    <t>1. Uruchom system
+2. Zaloguj się jako administrator
+3. Przejdź do listy powiadomień
+4. Naciśnij DETAILS przy dowolnym powiadomieniu
+5. Wyślij komunikat wraz z ID powiadomienia do Web API o pobranie danych powiadomienia.
+6. Web API przesyła ten komunikat do systemu powiadomień. 
+7. System powiadomień na podstawie przesłanego ID pobiera informacje o powiadomieniu i przesyła je do Web API.
+8. Web API przesyła dane powiadomienia do klienta
+9. Klient wyświetla szczegóły na UI</t>
+  </si>
+  <si>
+    <t>Uruchomiony system, Użytkownik zalogowany jako dowolny użytkownik</t>
+  </si>
+  <si>
+    <t>Wyświetlanie danych aktualnie zalogowanego użytkownika</t>
+  </si>
+  <si>
+    <t>Uruchomiony system, Użytkownik zalogowany jako dowolny administrator</t>
   </si>
   <si>
     <t>1. Uruchom system
 2. Zaloguje jako administrator
 3. Przejdź do listy powiadomień
 4. Wyślij komunikat do Web API o pobranie listy powiadomień. 
-5. Web API pobiera z bazy danych listę powiadmień i wysyła ją do aplikacji klienckiej</t>
-  </si>
-  <si>
-    <t>Widoczna lista powiadomień z danymi</t>
-  </si>
-  <si>
-    <t>Testy Jednostkowe</t>
-  </si>
-  <si>
-    <t>Test metody pobierającej listę wszystkich przedmiotów po danym ID nauczyciela</t>
-  </si>
-  <si>
-    <t>ID Nauczyciela</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>1. Przekaż poprawny TeacherID do funkcji public List&lt;SUBJECT&gt; GetAllSubjects(int? id)</t>
-  </si>
-  <si>
-    <t>Lista przedmiotó przypisanych do danego nauczyciela</t>
-  </si>
-  <si>
-    <t>Pobrana lista tylko przedmiotów przypisanych do nauczyciela o danym ID</t>
-  </si>
-  <si>
-    <t>07.12.2017</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>1. Przekaż niepoprawny TeacherID do funkcji public List&lt;SUBJECT&gt; GetAllSubjects(int? id)</t>
-  </si>
-  <si>
-    <t>Zwrócony i obsłużony wyjątek, który mówi o tym, że nie znaleziono użytkownika o podanym ID</t>
-  </si>
-  <si>
-    <t>Wyjątek został przechwycony poprawny, na UI wyświetla się komunikat o błędnym ID nauczyciela</t>
-  </si>
-  <si>
-    <t>Test metody przypisania do nauczyciela nowego przedmiotu</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>1. Utwórz obiekt klasy SUBJECT
-2. Wywołaj metodę public void AssignSubjectToTeacher(int teacherID, SUBJECT subject) z poprawnym parametrem teacherID oraz z utworzonym obiektem</t>
-  </si>
-  <si>
-    <t>System znajdzie nauczyciela po ID i przypisze do niego przekazany przedmiot</t>
-  </si>
-  <si>
-    <t>Do podanego nauczyciela został przypisany przedmiot</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>1. Utwórz obiekt klasy SUBJECT
-2. Wywołaj metodę public void AssignSubjectToTeacher(int teacherID, SUBJECT subject) z niepoprawnym parametrem teacherID oraz z utworzonym obiektem</t>
-  </si>
-  <si>
-    <t>System nie znajdzie nauczyciela po ID i nie przypisze do niego przekazanego przedmiotu. Dodatkowo metoda wywoła i obsłuży wyjątek o braku nauczyciela o podanym ID</t>
-  </si>
-  <si>
-    <t>Metoda wyrzuciła wyjątek, który został przechwycony. Przedmiot nie został do nikogo przypisany</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>1. Wywołaj metodę public void AssignSubjectToTeacher(int teacherID, SUBJECT subject) z poprawnym parametrem teacherID oraz z wartością null dla parametru subject</t>
-  </si>
-  <si>
-    <t>Metoda wykryje, że przekazywany jest obiekt o wartości null i zwróci stosowny komunikat</t>
-  </si>
-  <si>
-    <t>Metoda zwróciła komunikat o tym, że przekazany obiekt przedmiotu jest null</t>
-  </si>
-  <si>
-    <t>Testy funkcjonalne (czarna skrzynka)</t>
-  </si>
-  <si>
-    <t>Użytkownik zalogowany</t>
-  </si>
-  <si>
-    <t>Użytkownik bez dostępu do systemu</t>
-  </si>
-  <si>
-    <t>Użytkownik systemu zalogowany jako administrator.</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>1. Zaloguj się
-2. Panel powiadomień jest pusty.</t>
-  </si>
-  <si>
-    <t>System nie wyświetli żadnego przycisku 'Szczegóły', ponieważ administrator nie ma powiadomień.</t>
-  </si>
-  <si>
-    <t>Użytkownik systemu zalogowany jako administrator. Usuwany użytkownik nie jest aktualnie zalogowany.</t>
-  </si>
-  <si>
-    <t>Użytkownik systemu zalogowany jako administrator. Usuwany użytkownik jest aktualnie zalogowany.</t>
-  </si>
-  <si>
-    <t>System wykonuje zapytanie do bazy i zwraca instancję użytkownika o podanym loginie i haśle. Użytkownik zostaje zalogowany</t>
-  </si>
-  <si>
-    <t>System wykonuje zapytanie do bazy i zwraca null, gdyż nie odnajduje użytkownika o podanym loginie i haśle. Użytkonik nie zostaje zalogowany</t>
-  </si>
-  <si>
-    <t>System wykonuje zapytanie do bazy i zwraca null, gdyż nie odnajduje użytkownika o podanym loginie i haśleUżytkonik nie zostaje zalogowany</t>
-  </si>
-  <si>
-    <t>System przelicza godziny i wyświetla komunikat "Liczba godzin przekroczona" i nie zapisuje zmian.</t>
-  </si>
-  <si>
-    <t>System przelicza godziny i zapisuje zmiany (wysyła powiadomienie o modyfikacji do amdinistratora systemu).</t>
+5. Web API pobiera z bazy danych listę powiadomień i wysyła ją do aplikacji klienckiej</t>
+  </si>
+  <si>
+    <t>Lista przedmiotów przypisanych do danego nauczyciela</t>
+  </si>
+  <si>
+    <t>W tym konkretnym przypadku komunikacją z bazą danych i Web API przebiegła prawidłowo</t>
   </si>
 </sst>
 </file>
@@ -1750,12 +1750,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1768,132 +1800,118 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1918,27 +1936,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1947,48 +1989,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2000,8 +2000,36 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2101,7 +2129,7 @@
         <xdr:cNvPr id="12444" name="Picture 102" descr="TEWI">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3FFB505-648F-40EB-BA70-DAF7B1B26DAF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3FFB505-648F-40EB-BA70-DAF7B1B26DAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2203,7 @@
         <xdr:cNvPr id="14486" name="Picture 5" descr="PTC_LogoCMYKBlue_noTag">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD7C0048-7535-423D-B7C4-B78DADBF71E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7C0048-7535-423D-B7C4-B78DADBF71E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2288,7 @@
         <xdr:cNvPr id="14487" name="AutoShape 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AA7C665-6D4E-4781-9F82-4A5E7BB98A16}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA7C665-6D4E-4781-9F82-4A5E7BB98A16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,18 +2638,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="135"/>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
+      <c r="A1" s="132"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
       <c r="M1" s="18"/>
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
@@ -2757,16 +2785,16 @@
       <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
       <c r="J10" s="25"/>
       <c r="K10" s="26"/>
       <c r="L10" s="24"/>
@@ -2792,17 +2820,17 @@
     </row>
     <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="127"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="139"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -2812,15 +2840,15 @@
       <c r="B13" s="28">
         <v>1</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
       <c r="J13" s="24"/>
       <c r="K13" s="29"/>
       <c r="L13" s="24"/>
@@ -2830,15 +2858,15 @@
     </row>
     <row r="14" spans="1:17" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="31"/>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
       <c r="J14" s="32"/>
       <c r="K14" s="33"/>
     </row>
@@ -2846,29 +2874,29 @@
       <c r="B15" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
       <c r="J15" s="24"/>
       <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
       <c r="J16" s="24"/>
       <c r="K16" s="29"/>
     </row>
@@ -2876,29 +2904,29 @@
       <c r="B17" s="28">
         <v>3</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
       <c r="J17" s="24"/>
       <c r="K17" s="29"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="28"/>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
       <c r="J18" s="24"/>
       <c r="K18" s="29"/>
     </row>
@@ -2906,29 +2934,29 @@
       <c r="B19" s="28">
         <v>4</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
       <c r="J19" s="24"/>
       <c r="K19" s="29"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="28"/>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
       <c r="J20" s="24"/>
       <c r="K20" s="29"/>
     </row>
@@ -2971,121 +2999,121 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="24"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="24"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="24"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
     <row r="31" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="24"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="24"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="130"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="24"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
     </row>
@@ -3632,15 +3660,15 @@
     </row>
     <row r="80" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="24"/>
-      <c r="C80" s="124"/>
-      <c r="D80" s="124"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="124"/>
-      <c r="G80" s="124"/>
-      <c r="H80" s="124"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="124"/>
-      <c r="K80" s="124"/>
+      <c r="C80" s="133"/>
+      <c r="D80" s="133"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="133"/>
+      <c r="G80" s="133"/>
+      <c r="H80" s="133"/>
+      <c r="I80" s="133"/>
+      <c r="J80" s="133"/>
+      <c r="K80" s="133"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="24"/>
@@ -3860,14 +3888,14 @@
     </row>
     <row r="99" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="24"/>
-      <c r="C99" s="124"/>
-      <c r="D99" s="124"/>
-      <c r="E99" s="124"/>
-      <c r="F99" s="124"/>
-      <c r="G99" s="124"/>
-      <c r="H99" s="124"/>
-      <c r="I99" s="124"/>
-      <c r="J99" s="124"/>
+      <c r="C99" s="133"/>
+      <c r="D99" s="133"/>
+      <c r="E99" s="133"/>
+      <c r="F99" s="133"/>
+      <c r="G99" s="133"/>
+      <c r="H99" s="133"/>
+      <c r="I99" s="133"/>
+      <c r="J99" s="133"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
@@ -3884,25 +3912,25 @@
     </row>
     <row r="101" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="24"/>
-      <c r="C101" s="123"/>
-      <c r="D101" s="123"/>
-      <c r="E101" s="123"/>
-      <c r="F101" s="123"/>
-      <c r="G101" s="123"/>
-      <c r="H101" s="123"/>
-      <c r="I101" s="123"/>
+      <c r="C101" s="131"/>
+      <c r="D101" s="131"/>
+      <c r="E101" s="131"/>
+      <c r="F101" s="131"/>
+      <c r="G101" s="131"/>
+      <c r="H101" s="131"/>
+      <c r="I101" s="131"/>
       <c r="J101" s="24"/>
       <c r="K101" s="24"/>
     </row>
     <row r="102" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="24"/>
-      <c r="C102" s="124"/>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
-      <c r="F102" s="124"/>
-      <c r="G102" s="124"/>
-      <c r="H102" s="124"/>
-      <c r="I102" s="124"/>
+      <c r="C102" s="133"/>
+      <c r="D102" s="133"/>
+      <c r="E102" s="133"/>
+      <c r="F102" s="133"/>
+      <c r="G102" s="133"/>
+      <c r="H102" s="133"/>
+      <c r="I102" s="133"/>
       <c r="J102" s="24"/>
       <c r="K102" s="24"/>
     </row>
@@ -3980,15 +4008,15 @@
     </row>
     <row r="109" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="24"/>
-      <c r="C109" s="134"/>
-      <c r="D109" s="134"/>
-      <c r="E109" s="134"/>
-      <c r="F109" s="134"/>
-      <c r="G109" s="134"/>
-      <c r="H109" s="134"/>
-      <c r="I109" s="134"/>
-      <c r="J109" s="134"/>
-      <c r="K109" s="134"/>
+      <c r="C109" s="143"/>
+      <c r="D109" s="143"/>
+      <c r="E109" s="143"/>
+      <c r="F109" s="143"/>
+      <c r="G109" s="143"/>
+      <c r="H109" s="143"/>
+      <c r="I109" s="143"/>
+      <c r="J109" s="143"/>
+      <c r="K109" s="143"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="24"/>
@@ -4196,27 +4224,27 @@
     </row>
     <row r="127" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="24"/>
-      <c r="C127" s="124"/>
-      <c r="D127" s="124"/>
-      <c r="E127" s="124"/>
-      <c r="F127" s="124"/>
-      <c r="G127" s="124"/>
-      <c r="H127" s="124"/>
-      <c r="I127" s="124"/>
-      <c r="J127" s="124"/>
-      <c r="K127" s="124"/>
+      <c r="C127" s="133"/>
+      <c r="D127" s="133"/>
+      <c r="E127" s="133"/>
+      <c r="F127" s="133"/>
+      <c r="G127" s="133"/>
+      <c r="H127" s="133"/>
+      <c r="I127" s="133"/>
+      <c r="J127" s="133"/>
+      <c r="K127" s="133"/>
     </row>
     <row r="128" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="24"/>
-      <c r="C128" s="125"/>
-      <c r="D128" s="124"/>
-      <c r="E128" s="124"/>
-      <c r="F128" s="124"/>
-      <c r="G128" s="124"/>
-      <c r="H128" s="124"/>
-      <c r="I128" s="124"/>
-      <c r="J128" s="124"/>
-      <c r="K128" s="124"/>
+      <c r="C128" s="137"/>
+      <c r="D128" s="133"/>
+      <c r="E128" s="133"/>
+      <c r="F128" s="133"/>
+      <c r="G128" s="133"/>
+      <c r="H128" s="133"/>
+      <c r="I128" s="133"/>
+      <c r="J128" s="133"/>
+      <c r="K128" s="133"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B129" s="24"/>
@@ -4509,18 +4537,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="28">
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C80:K80"/>
     <mergeCell ref="C101:I101"/>
     <mergeCell ref="C102:I102"/>
     <mergeCell ref="C128:K128"/>
@@ -4537,6 +4553,18 @@
     <mergeCell ref="C127:K127"/>
     <mergeCell ref="C109:K109"/>
     <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C80:K80"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
@@ -4569,20 +4597,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
       <c r="M1" s="44"/>
       <c r="P1" s="40"/>
     </row>
@@ -4611,20 +4639,20 @@
       <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
       <c r="M5" s="42"/>
       <c r="P5" s="40"/>
     </row>
@@ -4737,18 +4765,18 @@
       <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="158"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
       <c r="M13" s="48"/>
       <c r="N13" s="43"/>
       <c r="P13" s="40"/>
@@ -4772,40 +4800,40 @@
       <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="161"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
     </row>
     <row r="18" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="162"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
@@ -4819,43 +4847,43 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="156"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="163" t="str">
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="152" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>TestCaseDocument_IzabelaPabich_WojciechPełka.xlsx</v>
       </c>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="165"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="154"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="144" t="s">
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
@@ -4912,10 +4940,10 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="157"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="118" t="s">
         <v>23</v>
       </c>
@@ -4924,127 +4952,127 @@
       <c r="G25" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="138" t="s">
+      <c r="H25" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="148"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="141"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="161"/>
       <c r="G26" s="59"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="148"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
       <c r="G27" s="59"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="148"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="161"/>
       <c r="G28" s="59"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="148"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="141"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="161"/>
       <c r="G29" s="59"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="148"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="141"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="161"/>
       <c r="G30" s="59"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
       <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="148"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="141"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="161"/>
       <c r="G31" s="59"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="148"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="154"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="164"/>
       <c r="G32" s="59"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="147"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="167"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="168"/>
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -5101,57 +5129,57 @@
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="155" t="s">
+      <c r="B36" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="155" t="s">
+      <c r="C36" s="160"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="156"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="138" t="s">
+      <c r="F36" s="148"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="138"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="138"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="156"/>
+      <c r="N36" s="156"/>
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="152"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="142"/>
-      <c r="K37" s="142"/>
-      <c r="L37" s="142"/>
-      <c r="M37" s="142"/>
-      <c r="N37" s="142"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="170"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="170"/>
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="139"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="143"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="171"/>
+      <c r="L38" s="171"/>
+      <c r="M38" s="171"/>
+      <c r="N38" s="171"/>
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -5161,13 +5189,13 @@
       <c r="E39" s="114"/>
       <c r="F39" s="116"/>
       <c r="G39" s="115"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="142"/>
-      <c r="L39" s="142"/>
-      <c r="M39" s="142"/>
-      <c r="N39" s="142"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="170"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="170"/>
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -5177,13 +5205,13 @@
       <c r="E40" s="114"/>
       <c r="F40" s="116"/>
       <c r="G40" s="115"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="142"/>
-      <c r="K40" s="142"/>
-      <c r="L40" s="142"/>
-      <c r="M40" s="142"/>
-      <c r="N40" s="142"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="170"/>
+      <c r="M40" s="170"/>
+      <c r="N40" s="170"/>
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -5193,13 +5221,13 @@
       <c r="E41" s="114"/>
       <c r="F41" s="116"/>
       <c r="G41" s="115"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="142"/>
-      <c r="K41" s="142"/>
-      <c r="L41" s="142"/>
-      <c r="M41" s="142"/>
-      <c r="N41" s="142"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="170"/>
+      <c r="L41" s="170"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="170"/>
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -5209,13 +5237,13 @@
       <c r="E42" s="114"/>
       <c r="F42" s="116"/>
       <c r="G42" s="115"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="142"/>
-      <c r="K42" s="142"/>
-      <c r="L42" s="142"/>
-      <c r="M42" s="142"/>
-      <c r="N42" s="142"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="170"/>
+      <c r="L42" s="170"/>
+      <c r="M42" s="170"/>
+      <c r="N42" s="170"/>
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -5404,15 +5432,26 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="45">
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A17:O17"/>
-    <mergeCell ref="A18:O18"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
     <mergeCell ref="H25:N25"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
@@ -5429,26 +5468,15 @@
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="H27:N27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H28:N28"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E21:M21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -5485,14 +5513,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="168"/>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
+      <c r="A1" s="174"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
     </row>
     <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
@@ -5539,79 +5567,79 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="171"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="174"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="180"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="174"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="180"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="174"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="180"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="180"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="174"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="180"/>
     </row>
     <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="176"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="174"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="180"/>
     </row>
     <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="179"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="185"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
@@ -5660,10 +5688,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="167"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -5922,9 +5950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5946,13 +5974,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
     </row>
     <row r="2" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
@@ -6036,16 +6064,16 @@
       <c r="O7" s="89"/>
     </row>
     <row r="8" spans="2:15" s="73" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="185">
+      <c r="C8" s="190">
         <v>1</v>
       </c>
-      <c r="D8" s="183" t="s">
+      <c r="D8" s="189" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="187" t="s">
+      <c r="E8" s="201" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="74" t="s">
@@ -6055,13 +6083,13 @@
         <v>67</v>
       </c>
       <c r="H8" s="81" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="J8" s="87" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K8" s="74" t="s">
         <v>26</v>
@@ -6074,10 +6102,10 @@
       <c r="O8" s="90"/>
     </row>
     <row r="9" spans="2:15" s="73" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="181"/>
+      <c r="B9" s="194"/>
       <c r="C9" s="191"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="188"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="202"/>
       <c r="F9" s="74" t="s">
         <v>69</v>
       </c>
@@ -6085,13 +6113,13 @@
         <v>70</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="I9" s="84" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="J9" s="87" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K9" s="74" t="s">
         <v>26</v>
@@ -6104,10 +6132,10 @@
       <c r="O9" s="90"/>
     </row>
     <row r="10" spans="2:15" s="73" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="181"/>
+      <c r="B10" s="194"/>
       <c r="C10" s="191"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="188"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="202"/>
       <c r="F10" s="74" t="s">
         <v>71</v>
       </c>
@@ -6115,13 +6143,13 @@
         <v>72</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="I10" s="84" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="J10" s="87" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K10" s="74" t="s">
         <v>26</v>
@@ -6134,10 +6162,10 @@
       <c r="O10" s="90"/>
     </row>
     <row r="11" spans="2:15" s="73" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="181"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="189"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="203"/>
       <c r="F11" s="74" t="s">
         <v>73</v>
       </c>
@@ -6145,13 +6173,13 @@
         <v>74</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="I11" s="84" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="J11" s="87" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K11" s="74" t="s">
         <v>26</v>
@@ -6164,11 +6192,11 @@
       <c r="O11" s="90"/>
     </row>
     <row r="12" spans="2:15" s="73" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="181"/>
-      <c r="C12" s="185">
+      <c r="B12" s="194"/>
+      <c r="C12" s="190">
         <v>2</v>
       </c>
-      <c r="D12" s="183" t="s">
+      <c r="D12" s="189" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="74" t="s">
@@ -6181,7 +6209,7 @@
         <v>78</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="I12" s="84"/>
       <c r="J12" s="87" t="s">
@@ -6194,9 +6222,9 @@
       <c r="O12" s="90"/>
     </row>
     <row r="13" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="B13" s="181"/>
+      <c r="B13" s="194"/>
       <c r="C13" s="191"/>
-      <c r="D13" s="190"/>
+      <c r="D13" s="187"/>
       <c r="E13" s="74" t="s">
         <v>79</v>
       </c>
@@ -6207,7 +6235,7 @@
         <v>81</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="I13" s="84"/>
       <c r="J13" s="87" t="s">
@@ -6220,9 +6248,9 @@
       <c r="O13" s="90"/>
     </row>
     <row r="14" spans="2:15" s="73" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="182"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="184"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="200"/>
       <c r="E14" s="74" t="s">
         <v>79</v>
       </c>
@@ -6233,7 +6261,7 @@
         <v>83</v>
       </c>
       <c r="H14" s="81" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I14" s="84"/>
       <c r="J14" s="87" t="s">
@@ -6246,26 +6274,26 @@
       <c r="O14" s="90"/>
     </row>
     <row r="15" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="B15" s="180" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="185">
+      <c r="B15" s="196" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="190">
         <v>3</v>
       </c>
-      <c r="D15" s="183" t="s">
+      <c r="D15" s="189" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F15" s="74" t="s">
         <v>85</v>
       </c>
       <c r="G15" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="81" t="s">
         <v>86</v>
-      </c>
-      <c r="H15" s="81" t="s">
-        <v>87</v>
       </c>
       <c r="I15" s="84"/>
       <c r="J15" s="87" t="s">
@@ -6278,20 +6306,20 @@
       <c r="O15" s="90"/>
     </row>
     <row r="16" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="B16" s="181"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="184"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="200"/>
       <c r="E16" s="74" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="H16" s="81" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="I16" s="84"/>
       <c r="J16" s="87"/>
@@ -6302,24 +6330,24 @@
       <c r="O16" s="90"/>
     </row>
     <row r="17" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B17" s="181"/>
+      <c r="B17" s="194"/>
       <c r="C17" s="204">
         <v>4</v>
       </c>
-      <c r="D17" s="187" t="s">
+      <c r="D17" s="201" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="H17" s="81" t="s">
         <v>91</v>
-      </c>
-      <c r="F17" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="81" t="s">
-        <v>94</v>
       </c>
       <c r="I17" s="84"/>
       <c r="J17" s="87" t="s">
@@ -6332,55 +6360,55 @@
       <c r="O17" s="90"/>
     </row>
     <row r="18" spans="2:15" s="73" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="182"/>
+      <c r="B18" s="195"/>
       <c r="C18" s="205"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="198" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="198" t="s">
-        <v>160</v>
+      <c r="D18" s="203"/>
+      <c r="E18" s="123" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="123" t="s">
+        <v>144</v>
       </c>
       <c r="G18" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="199" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="200"/>
-      <c r="J18" s="201" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="124" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="125"/>
+      <c r="J18" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="198"/>
-      <c r="L18" s="202"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="198"/>
-      <c r="O18" s="203"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="128"/>
     </row>
     <row r="19" spans="2:15" s="73" customFormat="1" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="196" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="190">
+        <v>5</v>
+      </c>
+      <c r="D19" s="189" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="122" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="185">
-        <v>5</v>
-      </c>
-      <c r="D19" s="183" t="s">
+      <c r="H19" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="122" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="121" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="82" t="s">
-        <v>100</v>
-      </c>
       <c r="I19" s="82" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J19" s="88" t="s">
         <v>68</v>
@@ -6392,23 +6420,23 @@
       <c r="O19" s="91"/>
     </row>
     <row r="20" spans="2:15" s="73" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="181"/>
+      <c r="B20" s="194"/>
       <c r="C20" s="191"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="192" t="s">
-        <v>104</v>
+      <c r="D20" s="187"/>
+      <c r="E20" s="186" t="s">
+        <v>158</v>
       </c>
       <c r="F20" s="75" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="J20" s="88" t="s">
         <v>68</v>
@@ -6420,21 +6448,21 @@
       <c r="O20" s="91"/>
     </row>
     <row r="21" spans="2:15" s="73" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="181"/>
+      <c r="B21" s="194"/>
       <c r="C21" s="191"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
       <c r="F21" s="75" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="H21" s="82" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="I21" s="82" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="J21" s="88" t="s">
         <v>68</v>
@@ -6446,21 +6474,21 @@
       <c r="O21" s="91"/>
     </row>
     <row r="22" spans="2:15" s="73" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="181"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
       <c r="F22" s="75" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="H22" s="82" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="I22" s="82" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J22" s="88" t="s">
         <v>68</v>
@@ -6472,27 +6500,27 @@
       <c r="O22" s="91"/>
     </row>
     <row r="23" spans="2:15" s="73" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="181"/>
-      <c r="C23" s="195">
+      <c r="B23" s="194"/>
+      <c r="C23" s="198">
         <v>6</v>
       </c>
-      <c r="D23" s="192" t="s">
-        <v>114</v>
+      <c r="D23" s="186" t="s">
+        <v>103</v>
       </c>
       <c r="E23" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="75" t="s">
-        <v>115</v>
-      </c>
       <c r="G23" s="75" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I23" s="85" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J23" s="88" t="s">
         <v>68</v>
@@ -6504,23 +6532,23 @@
       <c r="O23" s="91"/>
     </row>
     <row r="24" spans="2:15" s="73" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="B24" s="181"/>
+      <c r="B24" s="194"/>
       <c r="C24" s="191"/>
-      <c r="D24" s="190"/>
+      <c r="D24" s="187"/>
       <c r="E24" s="75" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="F24" s="75" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G24" s="75" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I24" s="85" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J24" s="88" t="s">
         <v>68</v>
@@ -6532,23 +6560,23 @@
       <c r="O24" s="91"/>
     </row>
     <row r="25" spans="2:15" s="73" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="181"/>
+      <c r="B25" s="194"/>
       <c r="C25" s="191"/>
-      <c r="D25" s="190"/>
+      <c r="D25" s="187"/>
       <c r="E25" s="75" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="F25" s="75" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G25" s="75" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H25" s="82" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="I25" s="82" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="J25" s="88" t="s">
         <v>68</v>
@@ -6561,22 +6589,22 @@
     </row>
     <row r="26" spans="2:15" s="73" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="B26" s="197"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="193"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="188"/>
       <c r="E26" s="75" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G26" s="75" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="I26" s="82" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J26" s="88" t="s">
         <v>68</v>
@@ -6588,29 +6616,29 @@
       <c r="O26" s="91"/>
     </row>
     <row r="27" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="196" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="195">
+      <c r="B27" s="193" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="198">
         <v>7</v>
       </c>
-      <c r="D27" s="192" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="192" t="s">
-        <v>133</v>
+      <c r="D27" s="186" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="186" t="s">
+        <v>118</v>
       </c>
       <c r="F27" s="75" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G27" s="75" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="H27" s="82" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="I27" s="85" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="J27" s="88" t="s">
         <v>68</v>
@@ -6622,21 +6650,21 @@
       <c r="O27" s="91"/>
     </row>
     <row r="28" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="181"/>
+      <c r="B28" s="194"/>
       <c r="C28" s="191"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
       <c r="F28" s="75" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="G28" s="75" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="H28" s="82" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="I28" s="85" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="J28" s="88" t="s">
         <v>68</v>
@@ -6648,103 +6676,103 @@
       <c r="O28" s="91"/>
     </row>
     <row r="29" spans="2:15" s="73" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="181"/>
-      <c r="C29" s="195">
+      <c r="B29" s="194"/>
+      <c r="C29" s="198">
         <v>8</v>
       </c>
-      <c r="D29" s="192" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="192" t="s">
-        <v>133</v>
+      <c r="D29" s="186" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="186" t="s">
+        <v>118</v>
       </c>
       <c r="F29" s="75" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G29" s="75" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H29" s="82" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I29" s="85" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="J29" s="88" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K29" s="75" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L29" s="105" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M29" s="88" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="N29" s="75"/>
       <c r="O29" s="91"/>
     </row>
     <row r="30" spans="2:15" s="73" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="181"/>
+      <c r="B30" s="194"/>
       <c r="C30" s="191"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
       <c r="F30" s="75" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G30" s="75" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="J30" s="88" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K30" s="75" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L30" s="105" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M30" s="88" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="N30" s="75"/>
       <c r="O30" s="91"/>
     </row>
     <row r="31" spans="2:15" s="73" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="182"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="200"/>
+      <c r="E31" s="200"/>
       <c r="F31" s="75" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G31" s="75" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H31" s="82" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="I31" s="85" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="J31" s="88" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K31" s="75" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L31" s="105" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M31" s="88" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="N31" s="75"/>
       <c r="O31" s="91"/>
@@ -7261,6 +7289,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="C19:C22"/>
@@ -7274,18 +7314,6 @@
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
